--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\genstat\09_nutzer\holger\__speicherwolke\modellclub\LeipzigPlus_24\IMISE-Epidemiologisches-Bulletin-24\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\modellclub\2003_covid_modell\_Bulletin\LeipzigPlus_24\IMISE-Epidemiologisches-Bulletin-24\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8916"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -413,15 +413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F673"/>
+  <dimension ref="A1:F674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A653" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B674" sqref="B674"/>
+    <sheetView tabSelected="1" topLeftCell="A667" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A674" sqref="A674"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44053</v>
       </c>
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44054</v>
       </c>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44055</v>
       </c>
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44056</v>
       </c>
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44057</v>
       </c>
@@ -505,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44058</v>
       </c>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44059</v>
       </c>
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44060</v>
       </c>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44061</v>
       </c>
@@ -555,7 +555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44062</v>
       </c>
@@ -569,7 +569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44063</v>
       </c>
@@ -583,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44064</v>
       </c>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44065</v>
       </c>
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44066</v>
       </c>
@@ -619,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44067</v>
       </c>
@@ -633,7 +633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44068</v>
       </c>
@@ -647,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44069</v>
       </c>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -675,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44071</v>
       </c>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44072</v>
       </c>
@@ -700,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44073</v>
       </c>
@@ -711,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44075</v>
       </c>
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44076</v>
       </c>
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44077</v>
       </c>
@@ -767,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44078</v>
       </c>
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44079</v>
       </c>
@@ -792,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -803,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44081</v>
       </c>
@@ -817,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44082</v>
       </c>
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44083</v>
       </c>
@@ -845,7 +845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44084</v>
       </c>
@@ -859,7 +859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44085</v>
       </c>
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44086</v>
       </c>
@@ -884,7 +884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44087</v>
       </c>
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44088</v>
       </c>
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44089</v>
       </c>
@@ -923,7 +923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44090</v>
       </c>
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44091</v>
       </c>
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44092</v>
       </c>
@@ -965,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44093</v>
       </c>
@@ -976,7 +976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44094</v>
       </c>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44095</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44096</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44097</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44098</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44099</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44100</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44101</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44102</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44103</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44104</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44105</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44106</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44107</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44108</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44109</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44110</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44111</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44112</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44113</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44114</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44115</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44116</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44119</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44120</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44121</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44122</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44123</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44124</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44125</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44126</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44127</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44128</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44129</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44130</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44131</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44132</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44133</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44134</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44135</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44136</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44137</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44138</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44139</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44140</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44141</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44142</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44143</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44144</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44145</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44146</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44147</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44148</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44149</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44150</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44151</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44152</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44153</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44154</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44155</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44156</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44157</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44158</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44159</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44160</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44161</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44162</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44163</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44164</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44165</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44166</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44167</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44168</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44169</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44170</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44171</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44172</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44173</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44175</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44176</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44177</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44178</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44179</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44180</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44181</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44182</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44183</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44184</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44185</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44186</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44187</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44188</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44189</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44190</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44191</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44192</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44193</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44194</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44195</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44198</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44199</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44200</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44201</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44202</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44203</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44204</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44205</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44206</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44207</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44208</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44209</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44210</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44211</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44212</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44213</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44214</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44215</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44216</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44217</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44218</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44219</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44220</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44221</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44222</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44223</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44224</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44225</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44226</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44228</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44229</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44230</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44232</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44233</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44234</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44235</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44237</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44238</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44239</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44240</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44241</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44242</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44243</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44244</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44245</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44246</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44247</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44248</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44249</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44250</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44251</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44252</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44253</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44254</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44255</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44256</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44257</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44258</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44259</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44260</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44261</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44262</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44263</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44264</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44265</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44266</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44267</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44268</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44269</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44270</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44271</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44272</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44273</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44274</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44275</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44276</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44277</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44278</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44279</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44280</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44281</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44282</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44283</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44284</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44285</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44286</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44287</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44288</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44289</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44290</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44291</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44292</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44293</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44294</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44295</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44296</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44297</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44298</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44299</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44300</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44301</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44302</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44303</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44304</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44305</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44306</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44307</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44308</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44309</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44310</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44311</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44312</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44313</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44314</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44315</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44316</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44317</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44318</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44319</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44320</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44321</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44322</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44323</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44324</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44325</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44326</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44327</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44328</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44329</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44330</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44331</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44332</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44333</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44334</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44335</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44336</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44337</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44338</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44339</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44340</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44341</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44342</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44343</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44344</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44345</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44346</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44347</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44348</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44349</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44350</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44351</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44352</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44353</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44354</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44355</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44356</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44357</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44358</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44359</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44360</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44361</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44362</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44363</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44364</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44365</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44366</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44367</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44368</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44369</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44370</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44371</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44372</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44373</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44374</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44375</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44376</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44378</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44379</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44380</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44381</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44382</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44383</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44384</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44385</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44386</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44387</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44388</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44389</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44390</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44391</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44392</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44393</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44394</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44395</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44396</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44397</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44398</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44399</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44400</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44401</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44402</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44403</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44404</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44405</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44406</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44407</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44408</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44409</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44410</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44411</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>44412</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>44413</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>44414</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>44415</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>44416</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>44417</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>44418</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>44419</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>44420</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>44421</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44422</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44423</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44424</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44425</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>44426</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>44427</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44428</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>44429</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>44430</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44431</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>44432</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44433</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>44434</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>44435</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44436</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>44437</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>44438</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44439</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>44440</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>44441</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44442</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>44443</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>44444</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>44445</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>44446</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>44447</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>44448</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>44449</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>44450</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>44451</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>44452</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>44453</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>44454</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>44455</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>44456</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>44457</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>44458</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>44459</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>44460</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>44461</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>44462</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>44463</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>44464</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>44465</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>44466</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>44467</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>44468</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>44469</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>44470</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>44471</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>44472</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>44473</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>44474</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>44475</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>44476</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>44477</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44478</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>44479</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>44480</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>44481</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>44482</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>44483</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>44484</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>44485</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>44486</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>44487</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>44488</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>44489</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>44490</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>44491</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>44492</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>44493</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>44494</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>44495</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>44496</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>44497</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>44498</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>44499</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>44500</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>44501</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>44502</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>44503</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>44504</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>44505</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>44506</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>44507</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>44508</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>44509</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>44510</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>44511</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>44512</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>44513</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>44514</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>44515</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>44516</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>44517</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>44518</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>44519</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>44520</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>44521</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>44522</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>44523</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>44524</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>44525</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>44526</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>44527</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>44528</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>44529</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>44530</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>44531</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>44532</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>44533</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>44534</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>44535</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>44536</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>44537</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>44538</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>44539</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>44540</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>44541</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>44542</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>44543</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>44544</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>44545</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>44546</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>44547</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>44548</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>44549</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>44550</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>44551</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>44552</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>44553</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>44554</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>44555</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>44556</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>44557</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>44558</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>44559</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>44560</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>44561</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>44562</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>44563</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>44564</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>44565</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>44566</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>44567</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>44568</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>44569</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>44570</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>44571</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>44572</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>44573</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>44574</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>44575</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>44576</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>44577</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>44578</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>44579</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>44580</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>44581</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>44582</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>44583</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>44584</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>44585</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>44586</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>44587</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>44588</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>44589</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>44590</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>44591</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>44592</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>44593</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>44594</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>44595</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>44596</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>44597</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>44598</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>44599</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>44600</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>44601</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>44602</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>44603</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>44604</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>44605</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>44606</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>44607</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>44608</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>44609</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>44610</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>44611</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>44612</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>44613</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>44614</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>44615</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>44616</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>44617</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>44618</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>44619</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>44620</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>44621</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>44622</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>44623</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>44624</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>44625</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>44626</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>44627</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>44628</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>44629</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>44630</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>44631</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>44632</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>44633</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>44634</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>44635</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>44636</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>44637</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>44638</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>44639</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>44640</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>44641</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>44642</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>44643</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>44644</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>44645</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>44646</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>44647</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>44648</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>44649</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>44650</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>44651</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>44652</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>44653</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>44654</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>44655</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>44656</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>44657</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>44658</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>44659</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>44660</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>44661</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>44662</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>44663</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>44664</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>44665</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>44670</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>44671</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>44672</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>44673</v>
       </c>
@@ -8769,7 +8769,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>44676</v>
       </c>
@@ -8784,7 +8784,7 @@
       </c>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>44677</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>44678</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>44679</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>44680</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>44683</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>44684</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>44685</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>44686</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>44687</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>44690</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>44691</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>44692</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>44693</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>44694</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>44697</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>44698</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>44699</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>44700</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>44701</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>44704</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>44711</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>44714</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>44719</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>44721</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>44725</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>44728</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>44732</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>44735</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>44739</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>44742</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>44746</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>44749</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>44753</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>44756</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>44761</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>44768</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>44775</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>44782</v>
       </c>
@@ -9316,9 +9316,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
-        <f t="shared" ref="A658:A673" si="0">A657+7</f>
+        <f t="shared" ref="A658:A674" si="0">A657+7</f>
         <v>44789</v>
       </c>
       <c r="B658">
@@ -9331,7 +9331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <f t="shared" si="0"/>
         <v>44796</v>
@@ -9346,7 +9346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <f t="shared" si="0"/>
         <v>44803</v>
@@ -9361,7 +9361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <f t="shared" si="0"/>
         <v>44810</v>
@@ -9376,7 +9376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <f t="shared" si="0"/>
         <v>44817</v>
@@ -9391,7 +9391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <f t="shared" si="0"/>
         <v>44824</v>
@@ -9406,7 +9406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <f t="shared" si="0"/>
         <v>44831</v>
@@ -9421,7 +9421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <f t="shared" si="0"/>
         <v>44838</v>
@@ -9436,7 +9436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <f t="shared" si="0"/>
         <v>44845</v>
@@ -9451,7 +9451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <f t="shared" si="0"/>
         <v>44852</v>
@@ -9466,7 +9466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <f t="shared" si="0"/>
         <v>44859</v>
@@ -9481,7 +9481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -9496,7 +9496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <f t="shared" si="0"/>
         <v>44873</v>
@@ -9511,7 +9511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <f t="shared" si="0"/>
         <v>44880</v>
@@ -9526,7 +9526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <f t="shared" si="0"/>
         <v>44887</v>
@@ -9541,7 +9541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <f t="shared" si="0"/>
         <v>44894</v>
@@ -9553,6 +9553,21 @@
         <v>3</v>
       </c>
       <c r="D673" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A674" s="1">
+        <f t="shared" si="0"/>
+        <v>44901</v>
+      </c>
+      <c r="B674">
+        <v>744</v>
+      </c>
+      <c r="C674" t="s">
+        <v>3</v>
+      </c>
+      <c r="D674" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9569,6 +9584,7 @@
     <hyperlink ref="D503" r:id="rId4" location="a-8983"/>
     <hyperlink ref="D515" r:id="rId5" location="a-8983"/>
     <hyperlink ref="D673" r:id="rId6" location="a-8996"/>
+    <hyperlink ref="D674" r:id="rId7" location="a-8996"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8997</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F674"/>
+  <dimension ref="A1:F675"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A667" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A674" sqref="A674"/>
+      <selection activeCell="C677" sqref="C677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9318,7 +9321,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
-        <f t="shared" ref="A658:A674" si="0">A657+7</f>
+        <f t="shared" ref="A658:A675" si="0">A657+7</f>
         <v>44789</v>
       </c>
       <c r="B658">
@@ -9569,6 +9572,21 @@
       </c>
       <c r="D674" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A675" s="1">
+        <f t="shared" si="0"/>
+        <v>44908</v>
+      </c>
+      <c r="B675">
+        <v>865</v>
+      </c>
+      <c r="C675" t="s">
+        <v>3</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -9585,6 +9603,7 @@
     <hyperlink ref="D515" r:id="rId5" location="a-8983"/>
     <hyperlink ref="D673" r:id="rId6" location="a-8996"/>
     <hyperlink ref="D674" r:id="rId7" location="a-8996"/>
+    <hyperlink ref="D675" r:id="rId8" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8916"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8997</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8998</t>
   </si>
 </sst>
 </file>
@@ -416,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F675"/>
+  <dimension ref="A1:F676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C677" sqref="C677"/>
+    <sheetView tabSelected="1" topLeftCell="A675" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B677" sqref="B677"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44053</v>
       </c>
@@ -452,7 +455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44054</v>
       </c>
@@ -466,7 +469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44055</v>
       </c>
@@ -480,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44056</v>
       </c>
@@ -494,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44057</v>
       </c>
@@ -508,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44058</v>
       </c>
@@ -519,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44059</v>
       </c>
@@ -530,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44060</v>
       </c>
@@ -544,7 +547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44061</v>
       </c>
@@ -558,7 +561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44062</v>
       </c>
@@ -572,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44063</v>
       </c>
@@ -586,7 +589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44064</v>
       </c>
@@ -600,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44065</v>
       </c>
@@ -611,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44066</v>
       </c>
@@ -622,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44067</v>
       </c>
@@ -636,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44068</v>
       </c>
@@ -650,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44069</v>
       </c>
@@ -664,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -678,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44071</v>
       </c>
@@ -692,7 +695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44072</v>
       </c>
@@ -703,7 +706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44073</v>
       </c>
@@ -714,7 +717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -728,7 +731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44075</v>
       </c>
@@ -742,7 +745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44076</v>
       </c>
@@ -756,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44077</v>
       </c>
@@ -770,7 +773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44078</v>
       </c>
@@ -784,7 +787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44079</v>
       </c>
@@ -795,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -806,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44081</v>
       </c>
@@ -820,7 +823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44082</v>
       </c>
@@ -834,7 +837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44083</v>
       </c>
@@ -848,7 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44084</v>
       </c>
@@ -862,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44085</v>
       </c>
@@ -876,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44086</v>
       </c>
@@ -887,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44087</v>
       </c>
@@ -898,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44088</v>
       </c>
@@ -912,7 +915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44089</v>
       </c>
@@ -926,7 +929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44090</v>
       </c>
@@ -940,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44091</v>
       </c>
@@ -954,7 +957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44092</v>
       </c>
@@ -968,7 +971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44093</v>
       </c>
@@ -979,7 +982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44094</v>
       </c>
@@ -990,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44095</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44096</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44097</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44098</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44099</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44100</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44101</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44102</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44103</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44104</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44105</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44106</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44107</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44108</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44109</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44110</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44111</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44112</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44113</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44114</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44115</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44116</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44119</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44120</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44121</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44122</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44123</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44124</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44125</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44126</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44127</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44128</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44129</v>
       </c>
@@ -1450,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44130</v>
       </c>
@@ -1464,7 +1467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44131</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44132</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44133</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44134</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44135</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44136</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44137</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44138</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44139</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44140</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44141</v>
       </c>
@@ -1612,7 +1615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44142</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44143</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44144</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44145</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44146</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44147</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44148</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44149</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44150</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44151</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44152</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44153</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44154</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44155</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44156</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44157</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44158</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44159</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44160</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44161</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44162</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44163</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44164</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44165</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44166</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44167</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44168</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44169</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44170</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44171</v>
       </c>
@@ -1999,7 +2002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44172</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44173</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44175</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44176</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44177</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44178</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44179</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44180</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44181</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44182</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44183</v>
       </c>
@@ -2161,7 +2164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44184</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44185</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44186</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44187</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44188</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44189</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44190</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44191</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44192</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44193</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44194</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44195</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44198</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44199</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44200</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44201</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44202</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44203</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44204</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44205</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44206</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44207</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44208</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44209</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44210</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44211</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44212</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44213</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44214</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44215</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44216</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44217</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44218</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44219</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44220</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44221</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44222</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44223</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44224</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44225</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44226</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44228</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44229</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44230</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44232</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44233</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44234</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44235</v>
       </c>
@@ -2835,7 +2838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44237</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44238</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44239</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44240</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44241</v>
       </c>
@@ -2913,7 +2916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44242</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44243</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44244</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44245</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44246</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44247</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44248</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44249</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44250</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44251</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44252</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44253</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44254</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44255</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44256</v>
       </c>
@@ -3111,7 +3114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44257</v>
       </c>
@@ -3125,7 +3128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44258</v>
       </c>
@@ -3139,7 +3142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44259</v>
       </c>
@@ -3153,7 +3156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44260</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44261</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44262</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44263</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44264</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44265</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44266</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44267</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44268</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44269</v>
       </c>
@@ -3281,7 +3284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44270</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44271</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44272</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44273</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44274</v>
       </c>
@@ -3351,7 +3354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44275</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44276</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44277</v>
       </c>
@@ -3387,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44278</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44279</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44280</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44281</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44282</v>
       </c>
@@ -3454,7 +3457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44283</v>
       </c>
@@ -3465,7 +3468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44284</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44285</v>
       </c>
@@ -3493,7 +3496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44286</v>
       </c>
@@ -3507,7 +3510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44287</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44288</v>
       </c>
@@ -3535,7 +3538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44289</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44290</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44291</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44292</v>
       </c>
@@ -3591,7 +3594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44293</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44294</v>
       </c>
@@ -3619,7 +3622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44295</v>
       </c>
@@ -3633,7 +3636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44296</v>
       </c>
@@ -3647,7 +3650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44297</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44298</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44299</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44300</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44301</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44302</v>
       </c>
@@ -3731,7 +3734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44303</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44304</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44305</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44306</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44307</v>
       </c>
@@ -3801,7 +3804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44308</v>
       </c>
@@ -3815,7 +3818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44309</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44310</v>
       </c>
@@ -3843,7 +3846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44311</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44312</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44313</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44314</v>
       </c>
@@ -3899,7 +3902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44315</v>
       </c>
@@ -3913,7 +3916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44316</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44317</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44318</v>
       </c>
@@ -3955,7 +3958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44319</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44320</v>
       </c>
@@ -3983,7 +3986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44321</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44322</v>
       </c>
@@ -4011,7 +4014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44323</v>
       </c>
@@ -4025,7 +4028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44324</v>
       </c>
@@ -4039,7 +4042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44325</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44326</v>
       </c>
@@ -4067,7 +4070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44327</v>
       </c>
@@ -4081,7 +4084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44328</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44329</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44330</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44331</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44332</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44333</v>
       </c>
@@ -4153,7 +4156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44334</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44335</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44336</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44337</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44338</v>
       </c>
@@ -4220,7 +4223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44339</v>
       </c>
@@ -4231,7 +4234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44340</v>
       </c>
@@ -4242,7 +4245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44341</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44342</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44343</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44344</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44345</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44346</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44347</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44348</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44349</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44350</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44351</v>
       </c>
@@ -4390,7 +4393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44352</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44353</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44354</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44355</v>
       </c>
@@ -4440,7 +4443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44356</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44357</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44358</v>
       </c>
@@ -4482,7 +4485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44359</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44360</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44361</v>
       </c>
@@ -4518,7 +4521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44362</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44363</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44364</v>
       </c>
@@ -4560,7 +4563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44365</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44366</v>
       </c>
@@ -4585,7 +4588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44367</v>
       </c>
@@ -4596,7 +4599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44368</v>
       </c>
@@ -4610,7 +4613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44369</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44370</v>
       </c>
@@ -4638,7 +4641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44371</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44372</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44373</v>
       </c>
@@ -4677,7 +4680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44374</v>
       </c>
@@ -4688,7 +4691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44375</v>
       </c>
@@ -4702,7 +4705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44376</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -4730,7 +4733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44378</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44379</v>
       </c>
@@ -4758,7 +4761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44380</v>
       </c>
@@ -4769,7 +4772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44381</v>
       </c>
@@ -4780,7 +4783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44382</v>
       </c>
@@ -4794,7 +4797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44383</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44384</v>
       </c>
@@ -4822,7 +4825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44385</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44386</v>
       </c>
@@ -4850,7 +4853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44387</v>
       </c>
@@ -4861,7 +4864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44388</v>
       </c>
@@ -4872,7 +4875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44389</v>
       </c>
@@ -4886,7 +4889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44390</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44391</v>
       </c>
@@ -4914,7 +4917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44392</v>
       </c>
@@ -4928,7 +4931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44393</v>
       </c>
@@ -4942,7 +4945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44394</v>
       </c>
@@ -4953,7 +4956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44395</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44396</v>
       </c>
@@ -4978,7 +4981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44397</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44398</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44399</v>
       </c>
@@ -5020,7 +5023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44400</v>
       </c>
@@ -5034,7 +5037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44401</v>
       </c>
@@ -5045,7 +5048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44402</v>
       </c>
@@ -5056,7 +5059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44403</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44404</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44405</v>
       </c>
@@ -5098,7 +5101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44406</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44407</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44408</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44409</v>
       </c>
@@ -5148,7 +5151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44410</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44411</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44412</v>
       </c>
@@ -5190,7 +5193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44413</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44414</v>
       </c>
@@ -5218,7 +5221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44415</v>
       </c>
@@ -5229,7 +5232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44416</v>
       </c>
@@ -5240,7 +5243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44417</v>
       </c>
@@ -5254,7 +5257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>44418</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44419</v>
       </c>
@@ -5282,7 +5285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44420</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44421</v>
       </c>
@@ -5310,7 +5313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44422</v>
       </c>
@@ -5321,7 +5324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44423</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44424</v>
       </c>
@@ -5346,7 +5349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44425</v>
       </c>
@@ -5360,7 +5363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44426</v>
       </c>
@@ -5374,7 +5377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44427</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44428</v>
       </c>
@@ -5402,7 +5405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44429</v>
       </c>
@@ -5413,7 +5416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44430</v>
       </c>
@@ -5424,7 +5427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44431</v>
       </c>
@@ -5438,7 +5441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44432</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44433</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44434</v>
       </c>
@@ -5480,7 +5483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44435</v>
       </c>
@@ -5494,7 +5497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44436</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44437</v>
       </c>
@@ -5522,7 +5525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44438</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44439</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44440</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44441</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44442</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44443</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44444</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44445</v>
       </c>
@@ -5634,7 +5637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44446</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44447</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44448</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>44449</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>44450</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>44451</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>44452</v>
       </c>
@@ -5732,7 +5735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>44453</v>
       </c>
@@ -5746,7 +5749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44454</v>
       </c>
@@ -5760,7 +5763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>44455</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>44456</v>
       </c>
@@ -5788,7 +5791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>44457</v>
       </c>
@@ -5802,7 +5805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>44458</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>44459</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>44460</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>44461</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>44462</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>44463</v>
       </c>
@@ -5886,7 +5889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>44464</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>44465</v>
       </c>
@@ -5914,7 +5917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>44466</v>
       </c>
@@ -5928,7 +5931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44467</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44468</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>44469</v>
       </c>
@@ -5970,7 +5973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>44470</v>
       </c>
@@ -5984,7 +5987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>44471</v>
       </c>
@@ -5998,7 +6001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>44472</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>44473</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44474</v>
       </c>
@@ -6040,7 +6043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>44475</v>
       </c>
@@ -6054,7 +6057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>44476</v>
       </c>
@@ -6068,7 +6071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>44477</v>
       </c>
@@ -6082,7 +6085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>44478</v>
       </c>
@@ -6096,7 +6099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>44479</v>
       </c>
@@ -6110,7 +6113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>44480</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>44481</v>
       </c>
@@ -6138,7 +6141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>44482</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>44483</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>44484</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>44485</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>44486</v>
       </c>
@@ -6208,7 +6211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>44487</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>44488</v>
       </c>
@@ -6236,7 +6239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>44489</v>
       </c>
@@ -6250,7 +6253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>44490</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>44491</v>
       </c>
@@ -6278,7 +6281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>44492</v>
       </c>
@@ -6292,7 +6295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>44493</v>
       </c>
@@ -6306,7 +6309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>44494</v>
       </c>
@@ -6320,7 +6323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>44495</v>
       </c>
@@ -6334,7 +6337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>44496</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>44497</v>
       </c>
@@ -6362,7 +6365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>44498</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>44499</v>
       </c>
@@ -6390,7 +6393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>44500</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>44501</v>
       </c>
@@ -6418,7 +6421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>44502</v>
       </c>
@@ -6432,7 +6435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>44503</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>44504</v>
       </c>
@@ -6460,7 +6463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>44505</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>44506</v>
       </c>
@@ -6488,7 +6491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>44507</v>
       </c>
@@ -6502,7 +6505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>44508</v>
       </c>
@@ -6516,7 +6519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>44509</v>
       </c>
@@ -6530,7 +6533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>44510</v>
       </c>
@@ -6544,7 +6547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>44511</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>44512</v>
       </c>
@@ -6572,7 +6575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>44513</v>
       </c>
@@ -6586,7 +6589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>44514</v>
       </c>
@@ -6600,7 +6603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>44515</v>
       </c>
@@ -6614,7 +6617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>44516</v>
       </c>
@@ -6628,7 +6631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>44517</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>44518</v>
       </c>
@@ -6656,7 +6659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>44519</v>
       </c>
@@ -6670,7 +6673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>44520</v>
       </c>
@@ -6684,7 +6687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>44521</v>
       </c>
@@ -6698,7 +6701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>44522</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>44523</v>
       </c>
@@ -6726,7 +6729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>44524</v>
       </c>
@@ -6740,7 +6743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>44525</v>
       </c>
@@ -6754,7 +6757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>44526</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>44527</v>
       </c>
@@ -6782,7 +6785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>44528</v>
       </c>
@@ -6796,7 +6799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>44529</v>
       </c>
@@ -6810,7 +6813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>44530</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>44531</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>44532</v>
       </c>
@@ -6852,7 +6855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>44533</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>44534</v>
       </c>
@@ -6880,7 +6883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>44535</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>44536</v>
       </c>
@@ -6908,7 +6911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>44537</v>
       </c>
@@ -6922,7 +6925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>44538</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>44539</v>
       </c>
@@ -6950,7 +6953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>44540</v>
       </c>
@@ -6964,7 +6967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>44541</v>
       </c>
@@ -6978,7 +6981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>44542</v>
       </c>
@@ -6992,7 +6995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>44543</v>
       </c>
@@ -7006,7 +7009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>44544</v>
       </c>
@@ -7020,7 +7023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>44545</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>44546</v>
       </c>
@@ -7048,7 +7051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>44547</v>
       </c>
@@ -7062,7 +7065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>44548</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>44549</v>
       </c>
@@ -7090,7 +7093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>44550</v>
       </c>
@@ -7104,7 +7107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>44551</v>
       </c>
@@ -7118,7 +7121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>44552</v>
       </c>
@@ -7132,7 +7135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>44553</v>
       </c>
@@ -7146,7 +7149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>44554</v>
       </c>
@@ -7160,7 +7163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>44555</v>
       </c>
@@ -7174,7 +7177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>44556</v>
       </c>
@@ -7188,7 +7191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>44557</v>
       </c>
@@ -7202,7 +7205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>44558</v>
       </c>
@@ -7216,7 +7219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>44559</v>
       </c>
@@ -7230,7 +7233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>44560</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>44561</v>
       </c>
@@ -7258,7 +7261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>44562</v>
       </c>
@@ -7272,7 +7275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>44563</v>
       </c>
@@ -7286,7 +7289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>44564</v>
       </c>
@@ -7300,7 +7303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>44565</v>
       </c>
@@ -7314,7 +7317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>44566</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>44567</v>
       </c>
@@ -7342,7 +7345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>44568</v>
       </c>
@@ -7356,7 +7359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>44569</v>
       </c>
@@ -7370,7 +7373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>44570</v>
       </c>
@@ -7384,7 +7387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>44571</v>
       </c>
@@ -7398,7 +7401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>44572</v>
       </c>
@@ -7412,7 +7415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>44573</v>
       </c>
@@ -7426,7 +7429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>44574</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>44575</v>
       </c>
@@ -7454,7 +7457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>44576</v>
       </c>
@@ -7468,7 +7471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>44577</v>
       </c>
@@ -7482,7 +7485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>44578</v>
       </c>
@@ -7496,7 +7499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>44579</v>
       </c>
@@ -7510,7 +7513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>44580</v>
       </c>
@@ -7524,7 +7527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>44581</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>44582</v>
       </c>
@@ -7552,7 +7555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>44583</v>
       </c>
@@ -7566,7 +7569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>44584</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>44585</v>
       </c>
@@ -7594,7 +7597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>44586</v>
       </c>
@@ -7608,7 +7611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>44587</v>
       </c>
@@ -7622,7 +7625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>44588</v>
       </c>
@@ -7636,7 +7639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>44589</v>
       </c>
@@ -7650,7 +7653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>44590</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>44591</v>
       </c>
@@ -7678,7 +7681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>44592</v>
       </c>
@@ -7692,7 +7695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>44593</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>44594</v>
       </c>
@@ -7720,7 +7723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>44595</v>
       </c>
@@ -7734,7 +7737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>44596</v>
       </c>
@@ -7748,7 +7751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>44597</v>
       </c>
@@ -7762,7 +7765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>44598</v>
       </c>
@@ -7776,7 +7779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>44599</v>
       </c>
@@ -7790,7 +7793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>44600</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>44601</v>
       </c>
@@ -7818,7 +7821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>44602</v>
       </c>
@@ -7832,7 +7835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>44603</v>
       </c>
@@ -7846,7 +7849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>44604</v>
       </c>
@@ -7860,7 +7863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>44605</v>
       </c>
@@ -7874,7 +7877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>44606</v>
       </c>
@@ -7888,7 +7891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>44607</v>
       </c>
@@ -7902,7 +7905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>44608</v>
       </c>
@@ -7916,7 +7919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>44609</v>
       </c>
@@ -7930,7 +7933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>44610</v>
       </c>
@@ -7944,7 +7947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>44611</v>
       </c>
@@ -7958,7 +7961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>44612</v>
       </c>
@@ -7972,7 +7975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>44613</v>
       </c>
@@ -7986,7 +7989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>44614</v>
       </c>
@@ -8000,7 +8003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>44615</v>
       </c>
@@ -8014,7 +8017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>44616</v>
       </c>
@@ -8028,7 +8031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>44617</v>
       </c>
@@ -8042,7 +8045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>44618</v>
       </c>
@@ -8056,7 +8059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>44619</v>
       </c>
@@ -8070,7 +8073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>44620</v>
       </c>
@@ -8084,7 +8087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>44621</v>
       </c>
@@ -8098,7 +8101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>44622</v>
       </c>
@@ -8112,7 +8115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>44623</v>
       </c>
@@ -8126,7 +8129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>44624</v>
       </c>
@@ -8140,7 +8143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>44625</v>
       </c>
@@ -8154,7 +8157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>44626</v>
       </c>
@@ -8168,7 +8171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>44627</v>
       </c>
@@ -8182,7 +8185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>44628</v>
       </c>
@@ -8196,7 +8199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>44629</v>
       </c>
@@ -8210,7 +8213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>44630</v>
       </c>
@@ -8224,7 +8227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>44631</v>
       </c>
@@ -8238,7 +8241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>44632</v>
       </c>
@@ -8252,7 +8255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>44633</v>
       </c>
@@ -8266,7 +8269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>44634</v>
       </c>
@@ -8280,7 +8283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>44635</v>
       </c>
@@ -8294,7 +8297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>44636</v>
       </c>
@@ -8308,7 +8311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>44637</v>
       </c>
@@ -8322,7 +8325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>44638</v>
       </c>
@@ -8336,7 +8339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>44639</v>
       </c>
@@ -8350,7 +8353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>44640</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>44641</v>
       </c>
@@ -8378,7 +8381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>44642</v>
       </c>
@@ -8392,7 +8395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>44643</v>
       </c>
@@ -8406,7 +8409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>44644</v>
       </c>
@@ -8420,7 +8423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>44645</v>
       </c>
@@ -8434,7 +8437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>44646</v>
       </c>
@@ -8448,7 +8451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>44647</v>
       </c>
@@ -8462,7 +8465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>44648</v>
       </c>
@@ -8476,7 +8479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>44649</v>
       </c>
@@ -8490,7 +8493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>44650</v>
       </c>
@@ -8504,7 +8507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>44651</v>
       </c>
@@ -8518,7 +8521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>44652</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>44653</v>
       </c>
@@ -8546,7 +8549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>44654</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>44655</v>
       </c>
@@ -8574,7 +8577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>44656</v>
       </c>
@@ -8588,7 +8591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>44657</v>
       </c>
@@ -8602,7 +8605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>44658</v>
       </c>
@@ -8616,7 +8619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>44659</v>
       </c>
@@ -8630,7 +8633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>44660</v>
       </c>
@@ -8644,7 +8647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>44661</v>
       </c>
@@ -8658,7 +8661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>44662</v>
       </c>
@@ -8672,7 +8675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>44663</v>
       </c>
@@ -8686,7 +8689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>44664</v>
       </c>
@@ -8700,7 +8703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>44665</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>44670</v>
       </c>
@@ -8728,7 +8731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>44671</v>
       </c>
@@ -8742,7 +8745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>44672</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>44673</v>
       </c>
@@ -8772,7 +8775,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>44676</v>
       </c>
@@ -8787,7 +8790,7 @@
       </c>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>44677</v>
       </c>
@@ -8801,7 +8804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>44678</v>
       </c>
@@ -8815,7 +8818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>44679</v>
       </c>
@@ -8829,7 +8832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>44680</v>
       </c>
@@ -8843,7 +8846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>44683</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>44684</v>
       </c>
@@ -8871,7 +8874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>44685</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>44686</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>44687</v>
       </c>
@@ -8913,7 +8916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>44690</v>
       </c>
@@ -8927,7 +8930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>44691</v>
       </c>
@@ -8941,7 +8944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>44692</v>
       </c>
@@ -8955,7 +8958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>44693</v>
       </c>
@@ -8969,7 +8972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>44694</v>
       </c>
@@ -8983,7 +8986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>44697</v>
       </c>
@@ -8997,7 +9000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>44698</v>
       </c>
@@ -9011,7 +9014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>44699</v>
       </c>
@@ -9025,7 +9028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>44700</v>
       </c>
@@ -9039,7 +9042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>44701</v>
       </c>
@@ -9053,7 +9056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>44704</v>
       </c>
@@ -9067,7 +9070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>44711</v>
       </c>
@@ -9081,7 +9084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>44714</v>
       </c>
@@ -9095,7 +9098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>44719</v>
       </c>
@@ -9109,7 +9112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>44721</v>
       </c>
@@ -9123,7 +9126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>44725</v>
       </c>
@@ -9137,7 +9140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>44728</v>
       </c>
@@ -9151,7 +9154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>44732</v>
       </c>
@@ -9165,7 +9168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>44735</v>
       </c>
@@ -9179,7 +9182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>44739</v>
       </c>
@@ -9193,7 +9196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>44742</v>
       </c>
@@ -9207,7 +9210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>44746</v>
       </c>
@@ -9221,7 +9224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>44749</v>
       </c>
@@ -9235,7 +9238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>44753</v>
       </c>
@@ -9249,7 +9252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>44756</v>
       </c>
@@ -9263,7 +9266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>44761</v>
       </c>
@@ -9277,7 +9280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>44768</v>
       </c>
@@ -9291,7 +9294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>44775</v>
       </c>
@@ -9305,7 +9308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>44782</v>
       </c>
@@ -9319,9 +9322,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <f t="shared" ref="A658:A675" si="0">A657+7</f>
+        <f t="shared" ref="A658:A676" si="0">A657+7</f>
         <v>44789</v>
       </c>
       <c r="B658">
@@ -9334,7 +9337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <f t="shared" si="0"/>
         <v>44796</v>
@@ -9349,7 +9352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <f t="shared" si="0"/>
         <v>44803</v>
@@ -9364,7 +9367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <f t="shared" si="0"/>
         <v>44810</v>
@@ -9379,7 +9382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <f t="shared" si="0"/>
         <v>44817</v>
@@ -9394,7 +9397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <f t="shared" si="0"/>
         <v>44824</v>
@@ -9409,7 +9412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <f t="shared" si="0"/>
         <v>44831</v>
@@ -9424,7 +9427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <f t="shared" si="0"/>
         <v>44838</v>
@@ -9439,7 +9442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <f t="shared" si="0"/>
         <v>44845</v>
@@ -9454,7 +9457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <f t="shared" si="0"/>
         <v>44852</v>
@@ -9469,7 +9472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <f t="shared" si="0"/>
         <v>44859</v>
@@ -9484,7 +9487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -9499,7 +9502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <f t="shared" si="0"/>
         <v>44873</v>
@@ -9514,7 +9517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <f t="shared" si="0"/>
         <v>44880</v>
@@ -9529,7 +9532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <f t="shared" si="0"/>
         <v>44887</v>
@@ -9544,7 +9547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <f t="shared" si="0"/>
         <v>44894</v>
@@ -9559,7 +9562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <f t="shared" si="0"/>
         <v>44901</v>
@@ -9574,7 +9577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <f t="shared" si="0"/>
         <v>44908</v>
@@ -9587,6 +9590,21 @@
       </c>
       <c r="D675" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676" s="1">
+        <f t="shared" si="0"/>
+        <v>44915</v>
+      </c>
+      <c r="B676">
+        <v>837</v>
+      </c>
+      <c r="C676" t="s">
+        <v>3</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -9604,6 +9622,7 @@
     <hyperlink ref="D673" r:id="rId6" location="a-8996"/>
     <hyperlink ref="D674" r:id="rId7" location="a-8996"/>
     <hyperlink ref="D675" r:id="rId8" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996"/>
+    <hyperlink ref="D676" r:id="rId9" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F676"/>
+  <dimension ref="A1:F677"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A675" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B677" sqref="B677"/>
+      <selection activeCell="C677" sqref="C677:D677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <f t="shared" ref="A658:A676" si="0">A657+7</f>
+        <f t="shared" ref="A658:A677" si="0">A657+7</f>
         <v>44789</v>
       </c>
       <c r="B658">
@@ -9604,6 +9604,21 @@
         <v>3</v>
       </c>
       <c r="D676" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677" s="1">
+        <f t="shared" si="0"/>
+        <v>44922</v>
+      </c>
+      <c r="B677">
+        <v>823</v>
+      </c>
+      <c r="C677" t="s">
+        <v>3</v>
+      </c>
+      <c r="D677" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9623,6 +9638,7 @@
     <hyperlink ref="D674" r:id="rId7" location="a-8996"/>
     <hyperlink ref="D675" r:id="rId8" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996"/>
     <hyperlink ref="D676" r:id="rId9" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996"/>
+    <hyperlink ref="D677" r:id="rId10" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\modellclub\2003_covid_modell\_Bulletin\LeipzigPlus_24\IMISE-Epidemiologisches-Bulletin-24\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3822A296-E1C7-4167-9FDC-D8B6F81B580E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="8910"/>
+    <workbookView xWindow="1920" yWindow="2136" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$256</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -95,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,16 +428,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F677"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F678"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A675" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C677" sqref="C677:D677"/>
+      <selection activeCell="C678" sqref="C678:D678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44053</v>
       </c>
@@ -455,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44054</v>
       </c>
@@ -469,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44055</v>
       </c>
@@ -483,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44056</v>
       </c>
@@ -497,7 +507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44057</v>
       </c>
@@ -511,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44058</v>
       </c>
@@ -522,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44059</v>
       </c>
@@ -533,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44060</v>
       </c>
@@ -547,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44061</v>
       </c>
@@ -561,7 +571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44062</v>
       </c>
@@ -575,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44063</v>
       </c>
@@ -589,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44064</v>
       </c>
@@ -603,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44065</v>
       </c>
@@ -614,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44066</v>
       </c>
@@ -625,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44067</v>
       </c>
@@ -639,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44068</v>
       </c>
@@ -653,7 +663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44069</v>
       </c>
@@ -667,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -681,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44071</v>
       </c>
@@ -695,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44072</v>
       </c>
@@ -706,7 +716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44073</v>
       </c>
@@ -717,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -731,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44075</v>
       </c>
@@ -745,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44076</v>
       </c>
@@ -759,7 +769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44077</v>
       </c>
@@ -773,7 +783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44078</v>
       </c>
@@ -787,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44079</v>
       </c>
@@ -798,7 +808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -809,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44081</v>
       </c>
@@ -823,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44082</v>
       </c>
@@ -837,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44083</v>
       </c>
@@ -851,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44084</v>
       </c>
@@ -865,7 +875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44085</v>
       </c>
@@ -879,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44086</v>
       </c>
@@ -890,7 +900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44087</v>
       </c>
@@ -901,7 +911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44088</v>
       </c>
@@ -915,7 +925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44089</v>
       </c>
@@ -929,7 +939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44090</v>
       </c>
@@ -943,7 +953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44091</v>
       </c>
@@ -957,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44092</v>
       </c>
@@ -971,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44093</v>
       </c>
@@ -982,7 +992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44094</v>
       </c>
@@ -993,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44095</v>
       </c>
@@ -1007,7 +1017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44096</v>
       </c>
@@ -1021,7 +1031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44097</v>
       </c>
@@ -1035,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44098</v>
       </c>
@@ -1049,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44099</v>
       </c>
@@ -1063,7 +1073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44100</v>
       </c>
@@ -1074,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44101</v>
       </c>
@@ -1085,7 +1095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44102</v>
       </c>
@@ -1099,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44103</v>
       </c>
@@ -1113,7 +1123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44104</v>
       </c>
@@ -1127,7 +1137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44105</v>
       </c>
@@ -1141,7 +1151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44106</v>
       </c>
@@ -1155,7 +1165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44107</v>
       </c>
@@ -1166,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44108</v>
       </c>
@@ -1177,7 +1187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44109</v>
       </c>
@@ -1191,7 +1201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44110</v>
       </c>
@@ -1205,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44111</v>
       </c>
@@ -1219,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44112</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44113</v>
       </c>
@@ -1247,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44114</v>
       </c>
@@ -1258,7 +1268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44115</v>
       </c>
@@ -1269,7 +1279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44116</v>
       </c>
@@ -1283,7 +1293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1297,7 +1307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1311,7 +1321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44119</v>
       </c>
@@ -1325,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44120</v>
       </c>
@@ -1339,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44121</v>
       </c>
@@ -1350,7 +1360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44122</v>
       </c>
@@ -1361,7 +1371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44123</v>
       </c>
@@ -1375,7 +1385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44124</v>
       </c>
@@ -1389,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44125</v>
       </c>
@@ -1403,7 +1413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44126</v>
       </c>
@@ -1417,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44127</v>
       </c>
@@ -1431,7 +1441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44128</v>
       </c>
@@ -1442,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44129</v>
       </c>
@@ -1453,7 +1463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44130</v>
       </c>
@@ -1467,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44131</v>
       </c>
@@ -1481,7 +1491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44132</v>
       </c>
@@ -1495,7 +1505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44133</v>
       </c>
@@ -1509,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44134</v>
       </c>
@@ -1523,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44135</v>
       </c>
@@ -1534,7 +1544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44136</v>
       </c>
@@ -1545,7 +1555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44137</v>
       </c>
@@ -1559,7 +1569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44138</v>
       </c>
@@ -1573,7 +1583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44139</v>
       </c>
@@ -1587,7 +1597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44140</v>
       </c>
@@ -1601,7 +1611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44141</v>
       </c>
@@ -1615,7 +1625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44142</v>
       </c>
@@ -1626,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44143</v>
       </c>
@@ -1637,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44144</v>
       </c>
@@ -1651,7 +1661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44145</v>
       </c>
@@ -1665,7 +1675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44146</v>
       </c>
@@ -1679,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44147</v>
       </c>
@@ -1693,7 +1703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44148</v>
       </c>
@@ -1707,7 +1717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44149</v>
       </c>
@@ -1718,7 +1728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44150</v>
       </c>
@@ -1729,7 +1739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44151</v>
       </c>
@@ -1743,7 +1753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44152</v>
       </c>
@@ -1757,7 +1767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44153</v>
       </c>
@@ -1768,7 +1778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44154</v>
       </c>
@@ -1782,7 +1792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44155</v>
       </c>
@@ -1796,7 +1806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44156</v>
       </c>
@@ -1807,7 +1817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44157</v>
       </c>
@@ -1818,7 +1828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44158</v>
       </c>
@@ -1832,7 +1842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44159</v>
       </c>
@@ -1846,7 +1856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44160</v>
       </c>
@@ -1860,7 +1870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44161</v>
       </c>
@@ -1874,7 +1884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44162</v>
       </c>
@@ -1888,7 +1898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44163</v>
       </c>
@@ -1899,7 +1909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44164</v>
       </c>
@@ -1910,7 +1920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44165</v>
       </c>
@@ -1924,7 +1934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44166</v>
       </c>
@@ -1938,7 +1948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44167</v>
       </c>
@@ -1952,7 +1962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44168</v>
       </c>
@@ -1966,7 +1976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44169</v>
       </c>
@@ -1980,7 +1990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44170</v>
       </c>
@@ -1991,7 +2001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44171</v>
       </c>
@@ -2002,7 +2012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44172</v>
       </c>
@@ -2016,7 +2026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44173</v>
       </c>
@@ -2030,7 +2040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -2044,7 +2054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44175</v>
       </c>
@@ -2058,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44176</v>
       </c>
@@ -2072,7 +2082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44177</v>
       </c>
@@ -2083,7 +2093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44178</v>
       </c>
@@ -2094,7 +2104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44179</v>
       </c>
@@ -2108,7 +2118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44180</v>
       </c>
@@ -2122,7 +2132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44181</v>
       </c>
@@ -2136,7 +2146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44182</v>
       </c>
@@ -2150,7 +2160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44183</v>
       </c>
@@ -2164,7 +2174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44184</v>
       </c>
@@ -2175,7 +2185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44185</v>
       </c>
@@ -2186,7 +2196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44186</v>
       </c>
@@ -2200,7 +2210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44187</v>
       </c>
@@ -2214,7 +2224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44188</v>
       </c>
@@ -2228,7 +2238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44189</v>
       </c>
@@ -2242,7 +2252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44190</v>
       </c>
@@ -2253,7 +2263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44191</v>
       </c>
@@ -2264,7 +2274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44192</v>
       </c>
@@ -2275,7 +2285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44193</v>
       </c>
@@ -2289,7 +2299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44194</v>
       </c>
@@ -2303,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44195</v>
       </c>
@@ -2317,7 +2327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -2331,7 +2341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -2342,7 +2352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44198</v>
       </c>
@@ -2353,7 +2363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44199</v>
       </c>
@@ -2364,7 +2374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44200</v>
       </c>
@@ -2378,7 +2388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44201</v>
       </c>
@@ -2392,7 +2402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44202</v>
       </c>
@@ -2406,7 +2416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44203</v>
       </c>
@@ -2420,7 +2430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44204</v>
       </c>
@@ -2434,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44205</v>
       </c>
@@ -2445,7 +2455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44206</v>
       </c>
@@ -2456,7 +2466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44207</v>
       </c>
@@ -2470,7 +2480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44208</v>
       </c>
@@ -2484,7 +2494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44209</v>
       </c>
@@ -2498,7 +2508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44210</v>
       </c>
@@ -2512,7 +2522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44211</v>
       </c>
@@ -2526,7 +2536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44212</v>
       </c>
@@ -2537,7 +2547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44213</v>
       </c>
@@ -2548,7 +2558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44214</v>
       </c>
@@ -2562,7 +2572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44215</v>
       </c>
@@ -2576,7 +2586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44216</v>
       </c>
@@ -2590,7 +2600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44217</v>
       </c>
@@ -2604,7 +2614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44218</v>
       </c>
@@ -2618,7 +2628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44219</v>
       </c>
@@ -2629,7 +2639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44220</v>
       </c>
@@ -2640,7 +2650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44221</v>
       </c>
@@ -2654,7 +2664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44222</v>
       </c>
@@ -2668,7 +2678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44223</v>
       </c>
@@ -2682,7 +2692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44224</v>
       </c>
@@ -2696,7 +2706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44225</v>
       </c>
@@ -2710,7 +2720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44226</v>
       </c>
@@ -2721,7 +2731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -2732,7 +2742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44228</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44229</v>
       </c>
@@ -2760,7 +2770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44230</v>
       </c>
@@ -2774,7 +2784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -2788,7 +2798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44232</v>
       </c>
@@ -2802,7 +2812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44233</v>
       </c>
@@ -2813,7 +2823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44234</v>
       </c>
@@ -2824,7 +2834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44235</v>
       </c>
@@ -2838,7 +2848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -2852,7 +2862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44237</v>
       </c>
@@ -2866,7 +2876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44238</v>
       </c>
@@ -2880,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44239</v>
       </c>
@@ -2894,7 +2904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44240</v>
       </c>
@@ -2905,7 +2915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44241</v>
       </c>
@@ -2916,7 +2926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44242</v>
       </c>
@@ -2930,7 +2940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44243</v>
       </c>
@@ -2944,7 +2954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44244</v>
       </c>
@@ -2958,7 +2968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44245</v>
       </c>
@@ -2972,7 +2982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44246</v>
       </c>
@@ -2986,7 +2996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44247</v>
       </c>
@@ -2997,7 +3007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44248</v>
       </c>
@@ -3008,7 +3018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44249</v>
       </c>
@@ -3022,7 +3032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44250</v>
       </c>
@@ -3036,7 +3046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44251</v>
       </c>
@@ -3050,7 +3060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44252</v>
       </c>
@@ -3064,7 +3074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44253</v>
       </c>
@@ -3078,7 +3088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44254</v>
       </c>
@@ -3089,7 +3099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44255</v>
       </c>
@@ -3100,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44256</v>
       </c>
@@ -3114,7 +3124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44257</v>
       </c>
@@ -3128,7 +3138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44258</v>
       </c>
@@ -3142,7 +3152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44259</v>
       </c>
@@ -3156,7 +3166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44260</v>
       </c>
@@ -3170,7 +3180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44261</v>
       </c>
@@ -3181,7 +3191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44262</v>
       </c>
@@ -3192,7 +3202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44263</v>
       </c>
@@ -3206,7 +3216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44264</v>
       </c>
@@ -3220,7 +3230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44265</v>
       </c>
@@ -3234,7 +3244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44266</v>
       </c>
@@ -3248,7 +3258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44267</v>
       </c>
@@ -3262,7 +3272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44268</v>
       </c>
@@ -3273,7 +3283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44269</v>
       </c>
@@ -3284,7 +3294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44270</v>
       </c>
@@ -3298,7 +3308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44271</v>
       </c>
@@ -3312,7 +3322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44272</v>
       </c>
@@ -3326,7 +3336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44273</v>
       </c>
@@ -3340,7 +3350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44274</v>
       </c>
@@ -3354,7 +3364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44275</v>
       </c>
@@ -3365,7 +3375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44276</v>
       </c>
@@ -3376,7 +3386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44277</v>
       </c>
@@ -3390,7 +3400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44278</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44279</v>
       </c>
@@ -3418,7 +3428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44280</v>
       </c>
@@ -3432,7 +3442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44281</v>
       </c>
@@ -3446,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44282</v>
       </c>
@@ -3457,7 +3467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44283</v>
       </c>
@@ -3468,7 +3478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44284</v>
       </c>
@@ -3482,7 +3492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44285</v>
       </c>
@@ -3496,7 +3506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44286</v>
       </c>
@@ -3510,7 +3520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44287</v>
       </c>
@@ -3524,7 +3534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44288</v>
       </c>
@@ -3538,7 +3548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44289</v>
       </c>
@@ -3552,7 +3562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44290</v>
       </c>
@@ -3566,7 +3576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44291</v>
       </c>
@@ -3580,7 +3590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44292</v>
       </c>
@@ -3594,7 +3604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44293</v>
       </c>
@@ -3608,7 +3618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44294</v>
       </c>
@@ -3622,7 +3632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44295</v>
       </c>
@@ -3636,7 +3646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44296</v>
       </c>
@@ -3650,7 +3660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44297</v>
       </c>
@@ -3664,7 +3674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44298</v>
       </c>
@@ -3678,7 +3688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44299</v>
       </c>
@@ -3692,7 +3702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44300</v>
       </c>
@@ -3706,7 +3716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44301</v>
       </c>
@@ -3720,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44302</v>
       </c>
@@ -3734,7 +3744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44303</v>
       </c>
@@ -3748,7 +3758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44304</v>
       </c>
@@ -3762,7 +3772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44305</v>
       </c>
@@ -3776,7 +3786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44306</v>
       </c>
@@ -3790,7 +3800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44307</v>
       </c>
@@ -3804,7 +3814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44308</v>
       </c>
@@ -3818,7 +3828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44309</v>
       </c>
@@ -3832,7 +3842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44310</v>
       </c>
@@ -3846,7 +3856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44311</v>
       </c>
@@ -3860,7 +3870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44312</v>
       </c>
@@ -3874,7 +3884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44313</v>
       </c>
@@ -3888,7 +3898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44314</v>
       </c>
@@ -3902,7 +3912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44315</v>
       </c>
@@ -3916,7 +3926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44316</v>
       </c>
@@ -3930,7 +3940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44317</v>
       </c>
@@ -3944,7 +3954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44318</v>
       </c>
@@ -3958,7 +3968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44319</v>
       </c>
@@ -3972,7 +3982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44320</v>
       </c>
@@ -3986,7 +3996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44321</v>
       </c>
@@ -4000,7 +4010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44322</v>
       </c>
@@ -4014,7 +4024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44323</v>
       </c>
@@ -4028,7 +4038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44324</v>
       </c>
@@ -4042,7 +4052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44325</v>
       </c>
@@ -4056,7 +4066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44326</v>
       </c>
@@ -4070,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44327</v>
       </c>
@@ -4084,7 +4094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44328</v>
       </c>
@@ -4098,7 +4108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44329</v>
       </c>
@@ -4109,7 +4119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44330</v>
       </c>
@@ -4120,7 +4130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44331</v>
       </c>
@@ -4131,7 +4141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44332</v>
       </c>
@@ -4142,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44333</v>
       </c>
@@ -4156,7 +4166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44334</v>
       </c>
@@ -4170,7 +4180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44335</v>
       </c>
@@ -4184,7 +4194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44336</v>
       </c>
@@ -4198,7 +4208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44337</v>
       </c>
@@ -4212,7 +4222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44338</v>
       </c>
@@ -4223,7 +4233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44339</v>
       </c>
@@ -4234,7 +4244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44340</v>
       </c>
@@ -4245,7 +4255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44341</v>
       </c>
@@ -4259,7 +4269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44342</v>
       </c>
@@ -4273,7 +4283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44343</v>
       </c>
@@ -4287,7 +4297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44344</v>
       </c>
@@ -4301,7 +4311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44345</v>
       </c>
@@ -4312,7 +4322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44346</v>
       </c>
@@ -4323,7 +4333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44347</v>
       </c>
@@ -4337,7 +4347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44348</v>
       </c>
@@ -4351,7 +4361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44349</v>
       </c>
@@ -4365,7 +4375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44350</v>
       </c>
@@ -4379,7 +4389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44351</v>
       </c>
@@ -4393,7 +4403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44352</v>
       </c>
@@ -4404,7 +4414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44353</v>
       </c>
@@ -4415,7 +4425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44354</v>
       </c>
@@ -4429,7 +4439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44355</v>
       </c>
@@ -4443,7 +4453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44356</v>
       </c>
@@ -4457,7 +4467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44357</v>
       </c>
@@ -4471,7 +4481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44358</v>
       </c>
@@ -4485,7 +4495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44359</v>
       </c>
@@ -4496,7 +4506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44360</v>
       </c>
@@ -4507,7 +4517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44361</v>
       </c>
@@ -4521,7 +4531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44362</v>
       </c>
@@ -4535,7 +4545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44363</v>
       </c>
@@ -4549,7 +4559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44364</v>
       </c>
@@ -4563,7 +4573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44365</v>
       </c>
@@ -4577,7 +4587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44366</v>
       </c>
@@ -4588,7 +4598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44367</v>
       </c>
@@ -4599,7 +4609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44368</v>
       </c>
@@ -4613,7 +4623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44369</v>
       </c>
@@ -4627,7 +4637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44370</v>
       </c>
@@ -4641,7 +4651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44371</v>
       </c>
@@ -4655,7 +4665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44372</v>
       </c>
@@ -4669,7 +4679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44373</v>
       </c>
@@ -4680,7 +4690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44374</v>
       </c>
@@ -4691,7 +4701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44375</v>
       </c>
@@ -4705,7 +4715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44376</v>
       </c>
@@ -4719,7 +4729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -4733,7 +4743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44378</v>
       </c>
@@ -4747,7 +4757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44379</v>
       </c>
@@ -4761,7 +4771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44380</v>
       </c>
@@ -4772,7 +4782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44381</v>
       </c>
@@ -4783,7 +4793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44382</v>
       </c>
@@ -4797,7 +4807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44383</v>
       </c>
@@ -4811,7 +4821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44384</v>
       </c>
@@ -4825,7 +4835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44385</v>
       </c>
@@ -4839,7 +4849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44386</v>
       </c>
@@ -4853,7 +4863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44387</v>
       </c>
@@ -4864,7 +4874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44388</v>
       </c>
@@ -4875,7 +4885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44389</v>
       </c>
@@ -4889,7 +4899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44390</v>
       </c>
@@ -4903,7 +4913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44391</v>
       </c>
@@ -4917,7 +4927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44392</v>
       </c>
@@ -4931,7 +4941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44393</v>
       </c>
@@ -4945,7 +4955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44394</v>
       </c>
@@ -4956,7 +4966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44395</v>
       </c>
@@ -4967,7 +4977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44396</v>
       </c>
@@ -4981,7 +4991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44397</v>
       </c>
@@ -4995,7 +5005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44398</v>
       </c>
@@ -5009,7 +5019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44399</v>
       </c>
@@ -5023,7 +5033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44400</v>
       </c>
@@ -5037,7 +5047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44401</v>
       </c>
@@ -5048,7 +5058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44402</v>
       </c>
@@ -5059,7 +5069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44403</v>
       </c>
@@ -5073,7 +5083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44404</v>
       </c>
@@ -5087,7 +5097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44405</v>
       </c>
@@ -5101,7 +5111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44406</v>
       </c>
@@ -5115,7 +5125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44407</v>
       </c>
@@ -5129,7 +5139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44408</v>
       </c>
@@ -5140,7 +5150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44409</v>
       </c>
@@ -5151,7 +5161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44410</v>
       </c>
@@ -5165,7 +5175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44411</v>
       </c>
@@ -5179,7 +5189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>44412</v>
       </c>
@@ -5193,7 +5203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>44413</v>
       </c>
@@ -5207,7 +5217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>44414</v>
       </c>
@@ -5221,7 +5231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>44415</v>
       </c>
@@ -5232,7 +5242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>44416</v>
       </c>
@@ -5243,7 +5253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>44417</v>
       </c>
@@ -5257,7 +5267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>44418</v>
       </c>
@@ -5271,7 +5281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>44419</v>
       </c>
@@ -5285,7 +5295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>44420</v>
       </c>
@@ -5299,7 +5309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>44421</v>
       </c>
@@ -5313,7 +5323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44422</v>
       </c>
@@ -5324,7 +5334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44423</v>
       </c>
@@ -5335,7 +5345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44424</v>
       </c>
@@ -5349,7 +5359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44425</v>
       </c>
@@ -5363,7 +5373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>44426</v>
       </c>
@@ -5377,7 +5387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>44427</v>
       </c>
@@ -5391,7 +5401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44428</v>
       </c>
@@ -5405,7 +5415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>44429</v>
       </c>
@@ -5416,7 +5426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>44430</v>
       </c>
@@ -5427,7 +5437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44431</v>
       </c>
@@ -5441,7 +5451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>44432</v>
       </c>
@@ -5455,7 +5465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44433</v>
       </c>
@@ -5469,7 +5479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>44434</v>
       </c>
@@ -5483,7 +5493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>44435</v>
       </c>
@@ -5497,7 +5507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44436</v>
       </c>
@@ -5511,7 +5521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>44437</v>
       </c>
@@ -5525,7 +5535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>44438</v>
       </c>
@@ -5539,7 +5549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44439</v>
       </c>
@@ -5553,7 +5563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>44440</v>
       </c>
@@ -5567,7 +5577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>44441</v>
       </c>
@@ -5581,7 +5591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44442</v>
       </c>
@@ -5595,7 +5605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>44443</v>
       </c>
@@ -5609,7 +5619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>44444</v>
       </c>
@@ -5623,7 +5633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>44445</v>
       </c>
@@ -5637,7 +5647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>44446</v>
       </c>
@@ -5651,7 +5661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>44447</v>
       </c>
@@ -5665,7 +5675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>44448</v>
       </c>
@@ -5679,7 +5689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>44449</v>
       </c>
@@ -5693,7 +5703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>44450</v>
       </c>
@@ -5707,7 +5717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>44451</v>
       </c>
@@ -5721,7 +5731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>44452</v>
       </c>
@@ -5735,7 +5745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>44453</v>
       </c>
@@ -5749,7 +5759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>44454</v>
       </c>
@@ -5763,7 +5773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>44455</v>
       </c>
@@ -5777,7 +5787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>44456</v>
       </c>
@@ -5791,7 +5801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>44457</v>
       </c>
@@ -5805,7 +5815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>44458</v>
       </c>
@@ -5819,7 +5829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>44459</v>
       </c>
@@ -5833,7 +5843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>44460</v>
       </c>
@@ -5847,7 +5857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>44461</v>
       </c>
@@ -5861,7 +5871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>44462</v>
       </c>
@@ -5875,7 +5885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>44463</v>
       </c>
@@ -5889,7 +5899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>44464</v>
       </c>
@@ -5903,7 +5913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>44465</v>
       </c>
@@ -5917,7 +5927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>44466</v>
       </c>
@@ -5931,7 +5941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>44467</v>
       </c>
@@ -5945,7 +5955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>44468</v>
       </c>
@@ -5959,7 +5969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>44469</v>
       </c>
@@ -5973,7 +5983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>44470</v>
       </c>
@@ -5987,7 +5997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>44471</v>
       </c>
@@ -6001,7 +6011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>44472</v>
       </c>
@@ -6015,7 +6025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>44473</v>
       </c>
@@ -6029,7 +6039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>44474</v>
       </c>
@@ -6043,7 +6053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>44475</v>
       </c>
@@ -6057,7 +6067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>44476</v>
       </c>
@@ -6071,7 +6081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>44477</v>
       </c>
@@ -6085,7 +6095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44478</v>
       </c>
@@ -6099,7 +6109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>44479</v>
       </c>
@@ -6113,7 +6123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>44480</v>
       </c>
@@ -6127,7 +6137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>44481</v>
       </c>
@@ -6141,7 +6151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>44482</v>
       </c>
@@ -6155,7 +6165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>44483</v>
       </c>
@@ -6169,7 +6179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>44484</v>
       </c>
@@ -6183,7 +6193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>44485</v>
       </c>
@@ -6197,7 +6207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>44486</v>
       </c>
@@ -6211,7 +6221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>44487</v>
       </c>
@@ -6225,7 +6235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>44488</v>
       </c>
@@ -6239,7 +6249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>44489</v>
       </c>
@@ -6253,7 +6263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>44490</v>
       </c>
@@ -6267,7 +6277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>44491</v>
       </c>
@@ -6281,7 +6291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>44492</v>
       </c>
@@ -6295,7 +6305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>44493</v>
       </c>
@@ -6309,7 +6319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>44494</v>
       </c>
@@ -6323,7 +6333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>44495</v>
       </c>
@@ -6337,7 +6347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>44496</v>
       </c>
@@ -6351,7 +6361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>44497</v>
       </c>
@@ -6365,7 +6375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>44498</v>
       </c>
@@ -6379,7 +6389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>44499</v>
       </c>
@@ -6393,7 +6403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>44500</v>
       </c>
@@ -6407,7 +6417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>44501</v>
       </c>
@@ -6421,7 +6431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>44502</v>
       </c>
@@ -6435,7 +6445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>44503</v>
       </c>
@@ -6449,7 +6459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>44504</v>
       </c>
@@ -6463,7 +6473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>44505</v>
       </c>
@@ -6477,7 +6487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>44506</v>
       </c>
@@ -6491,7 +6501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>44507</v>
       </c>
@@ -6505,7 +6515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>44508</v>
       </c>
@@ -6519,7 +6529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>44509</v>
       </c>
@@ -6533,7 +6543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>44510</v>
       </c>
@@ -6547,7 +6557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>44511</v>
       </c>
@@ -6561,7 +6571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>44512</v>
       </c>
@@ -6575,7 +6585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>44513</v>
       </c>
@@ -6589,7 +6599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>44514</v>
       </c>
@@ -6603,7 +6613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>44515</v>
       </c>
@@ -6617,7 +6627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>44516</v>
       </c>
@@ -6631,7 +6641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>44517</v>
       </c>
@@ -6645,7 +6655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>44518</v>
       </c>
@@ -6659,7 +6669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>44519</v>
       </c>
@@ -6673,7 +6683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>44520</v>
       </c>
@@ -6687,7 +6697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>44521</v>
       </c>
@@ -6701,7 +6711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>44522</v>
       </c>
@@ -6715,7 +6725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>44523</v>
       </c>
@@ -6729,7 +6739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>44524</v>
       </c>
@@ -6743,7 +6753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>44525</v>
       </c>
@@ -6757,7 +6767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>44526</v>
       </c>
@@ -6771,7 +6781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>44527</v>
       </c>
@@ -6785,7 +6795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>44528</v>
       </c>
@@ -6799,7 +6809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>44529</v>
       </c>
@@ -6813,7 +6823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>44530</v>
       </c>
@@ -6827,7 +6837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>44531</v>
       </c>
@@ -6841,7 +6851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>44532</v>
       </c>
@@ -6855,7 +6865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>44533</v>
       </c>
@@ -6869,7 +6879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>44534</v>
       </c>
@@ -6883,7 +6893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>44535</v>
       </c>
@@ -6897,7 +6907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>44536</v>
       </c>
@@ -6911,7 +6921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>44537</v>
       </c>
@@ -6925,7 +6935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>44538</v>
       </c>
@@ -6939,7 +6949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>44539</v>
       </c>
@@ -6953,7 +6963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>44540</v>
       </c>
@@ -6967,7 +6977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>44541</v>
       </c>
@@ -6981,7 +6991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>44542</v>
       </c>
@@ -6995,7 +7005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>44543</v>
       </c>
@@ -7009,7 +7019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>44544</v>
       </c>
@@ -7023,7 +7033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>44545</v>
       </c>
@@ -7037,7 +7047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>44546</v>
       </c>
@@ -7051,7 +7061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>44547</v>
       </c>
@@ -7065,7 +7075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>44548</v>
       </c>
@@ -7079,7 +7089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>44549</v>
       </c>
@@ -7093,7 +7103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>44550</v>
       </c>
@@ -7107,7 +7117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>44551</v>
       </c>
@@ -7121,7 +7131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>44552</v>
       </c>
@@ -7135,7 +7145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>44553</v>
       </c>
@@ -7149,7 +7159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>44554</v>
       </c>
@@ -7163,7 +7173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>44555</v>
       </c>
@@ -7177,7 +7187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>44556</v>
       </c>
@@ -7191,7 +7201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>44557</v>
       </c>
@@ -7205,7 +7215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>44558</v>
       </c>
@@ -7219,7 +7229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>44559</v>
       </c>
@@ -7233,7 +7243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>44560</v>
       </c>
@@ -7247,7 +7257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>44561</v>
       </c>
@@ -7261,7 +7271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>44562</v>
       </c>
@@ -7275,7 +7285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>44563</v>
       </c>
@@ -7289,7 +7299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>44564</v>
       </c>
@@ -7303,7 +7313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>44565</v>
       </c>
@@ -7317,7 +7327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>44566</v>
       </c>
@@ -7331,7 +7341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>44567</v>
       </c>
@@ -7345,7 +7355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>44568</v>
       </c>
@@ -7359,7 +7369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>44569</v>
       </c>
@@ -7373,7 +7383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>44570</v>
       </c>
@@ -7387,7 +7397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>44571</v>
       </c>
@@ -7401,7 +7411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>44572</v>
       </c>
@@ -7415,7 +7425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>44573</v>
       </c>
@@ -7429,7 +7439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>44574</v>
       </c>
@@ -7443,7 +7453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>44575</v>
       </c>
@@ -7457,7 +7467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>44576</v>
       </c>
@@ -7471,7 +7481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>44577</v>
       </c>
@@ -7485,7 +7495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>44578</v>
       </c>
@@ -7499,7 +7509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>44579</v>
       </c>
@@ -7513,7 +7523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>44580</v>
       </c>
@@ -7527,7 +7537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>44581</v>
       </c>
@@ -7541,7 +7551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>44582</v>
       </c>
@@ -7555,7 +7565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>44583</v>
       </c>
@@ -7569,7 +7579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>44584</v>
       </c>
@@ -7583,7 +7593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>44585</v>
       </c>
@@ -7597,7 +7607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>44586</v>
       </c>
@@ -7611,7 +7621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>44587</v>
       </c>
@@ -7625,7 +7635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>44588</v>
       </c>
@@ -7639,7 +7649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>44589</v>
       </c>
@@ -7653,7 +7663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>44590</v>
       </c>
@@ -7667,7 +7677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>44591</v>
       </c>
@@ -7681,7 +7691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>44592</v>
       </c>
@@ -7695,7 +7705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>44593</v>
       </c>
@@ -7709,7 +7719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>44594</v>
       </c>
@@ -7723,7 +7733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>44595</v>
       </c>
@@ -7737,7 +7747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>44596</v>
       </c>
@@ -7751,7 +7761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>44597</v>
       </c>
@@ -7765,7 +7775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>44598</v>
       </c>
@@ -7779,7 +7789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>44599</v>
       </c>
@@ -7793,7 +7803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>44600</v>
       </c>
@@ -7807,7 +7817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>44601</v>
       </c>
@@ -7821,7 +7831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>44602</v>
       </c>
@@ -7835,7 +7845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>44603</v>
       </c>
@@ -7849,7 +7859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>44604</v>
       </c>
@@ -7863,7 +7873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>44605</v>
       </c>
@@ -7877,7 +7887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>44606</v>
       </c>
@@ -7891,7 +7901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>44607</v>
       </c>
@@ -7905,7 +7915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>44608</v>
       </c>
@@ -7919,7 +7929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>44609</v>
       </c>
@@ -7933,7 +7943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>44610</v>
       </c>
@@ -7947,7 +7957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>44611</v>
       </c>
@@ -7961,7 +7971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>44612</v>
       </c>
@@ -7975,7 +7985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>44613</v>
       </c>
@@ -7989,7 +7999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>44614</v>
       </c>
@@ -8003,7 +8013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>44615</v>
       </c>
@@ -8017,7 +8027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>44616</v>
       </c>
@@ -8031,7 +8041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>44617</v>
       </c>
@@ -8045,7 +8055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>44618</v>
       </c>
@@ -8059,7 +8069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>44619</v>
       </c>
@@ -8073,7 +8083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>44620</v>
       </c>
@@ -8087,7 +8097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>44621</v>
       </c>
@@ -8101,7 +8111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>44622</v>
       </c>
@@ -8115,7 +8125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>44623</v>
       </c>
@@ -8129,7 +8139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>44624</v>
       </c>
@@ -8143,7 +8153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>44625</v>
       </c>
@@ -8157,7 +8167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>44626</v>
       </c>
@@ -8171,7 +8181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>44627</v>
       </c>
@@ -8185,7 +8195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>44628</v>
       </c>
@@ -8199,7 +8209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>44629</v>
       </c>
@@ -8213,7 +8223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>44630</v>
       </c>
@@ -8227,7 +8237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>44631</v>
       </c>
@@ -8241,7 +8251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>44632</v>
       </c>
@@ -8255,7 +8265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>44633</v>
       </c>
@@ -8269,7 +8279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>44634</v>
       </c>
@@ -8283,7 +8293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>44635</v>
       </c>
@@ -8297,7 +8307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>44636</v>
       </c>
@@ -8311,7 +8321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>44637</v>
       </c>
@@ -8325,7 +8335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>44638</v>
       </c>
@@ -8339,7 +8349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>44639</v>
       </c>
@@ -8353,7 +8363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>44640</v>
       </c>
@@ -8367,7 +8377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>44641</v>
       </c>
@@ -8381,7 +8391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>44642</v>
       </c>
@@ -8395,7 +8405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>44643</v>
       </c>
@@ -8409,7 +8419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>44644</v>
       </c>
@@ -8423,7 +8433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>44645</v>
       </c>
@@ -8437,7 +8447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>44646</v>
       </c>
@@ -8451,7 +8461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>44647</v>
       </c>
@@ -8465,7 +8475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>44648</v>
       </c>
@@ -8479,7 +8489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>44649</v>
       </c>
@@ -8493,7 +8503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>44650</v>
       </c>
@@ -8507,7 +8517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>44651</v>
       </c>
@@ -8521,7 +8531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>44652</v>
       </c>
@@ -8535,7 +8545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>44653</v>
       </c>
@@ -8549,7 +8559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>44654</v>
       </c>
@@ -8563,7 +8573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>44655</v>
       </c>
@@ -8577,7 +8587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>44656</v>
       </c>
@@ -8591,7 +8601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>44657</v>
       </c>
@@ -8605,7 +8615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>44658</v>
       </c>
@@ -8619,7 +8629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>44659</v>
       </c>
@@ -8633,7 +8643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>44660</v>
       </c>
@@ -8647,7 +8657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>44661</v>
       </c>
@@ -8661,7 +8671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>44662</v>
       </c>
@@ -8675,7 +8685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>44663</v>
       </c>
@@ -8689,7 +8699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>44664</v>
       </c>
@@ -8703,7 +8713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>44665</v>
       </c>
@@ -8717,7 +8727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>44670</v>
       </c>
@@ -8731,7 +8741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>44671</v>
       </c>
@@ -8745,7 +8755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>44672</v>
       </c>
@@ -8759,7 +8769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>44673</v>
       </c>
@@ -8775,7 +8785,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>44676</v>
       </c>
@@ -8790,7 +8800,7 @@
       </c>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>44677</v>
       </c>
@@ -8804,7 +8814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>44678</v>
       </c>
@@ -8818,7 +8828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>44679</v>
       </c>
@@ -8832,7 +8842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>44680</v>
       </c>
@@ -8846,7 +8856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>44683</v>
       </c>
@@ -8860,7 +8870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>44684</v>
       </c>
@@ -8874,7 +8884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>44685</v>
       </c>
@@ -8888,7 +8898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>44686</v>
       </c>
@@ -8902,7 +8912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>44687</v>
       </c>
@@ -8916,7 +8926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>44690</v>
       </c>
@@ -8930,7 +8940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>44691</v>
       </c>
@@ -8944,7 +8954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>44692</v>
       </c>
@@ -8958,7 +8968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>44693</v>
       </c>
@@ -8972,7 +8982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>44694</v>
       </c>
@@ -8986,7 +8996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>44697</v>
       </c>
@@ -9000,7 +9010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>44698</v>
       </c>
@@ -9014,7 +9024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>44699</v>
       </c>
@@ -9028,7 +9038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>44700</v>
       </c>
@@ -9042,7 +9052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>44701</v>
       </c>
@@ -9056,7 +9066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>44704</v>
       </c>
@@ -9070,7 +9080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>44711</v>
       </c>
@@ -9084,7 +9094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>44714</v>
       </c>
@@ -9098,7 +9108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>44719</v>
       </c>
@@ -9112,7 +9122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>44721</v>
       </c>
@@ -9126,7 +9136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>44725</v>
       </c>
@@ -9140,7 +9150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>44728</v>
       </c>
@@ -9154,7 +9164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>44732</v>
       </c>
@@ -9168,7 +9178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>44735</v>
       </c>
@@ -9182,7 +9192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>44739</v>
       </c>
@@ -9196,7 +9206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>44742</v>
       </c>
@@ -9210,7 +9220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>44746</v>
       </c>
@@ -9224,7 +9234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>44749</v>
       </c>
@@ -9238,7 +9248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>44753</v>
       </c>
@@ -9252,7 +9262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>44756</v>
       </c>
@@ -9266,7 +9276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>44761</v>
       </c>
@@ -9280,7 +9290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>44768</v>
       </c>
@@ -9294,7 +9304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>44775</v>
       </c>
@@ -9308,7 +9318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>44782</v>
       </c>
@@ -9322,9 +9332,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
-        <f t="shared" ref="A658:A677" si="0">A657+7</f>
+        <f t="shared" ref="A658:A678" si="0">A657+7</f>
         <v>44789</v>
       </c>
       <c r="B658">
@@ -9337,7 +9347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <f t="shared" si="0"/>
         <v>44796</v>
@@ -9352,7 +9362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <f t="shared" si="0"/>
         <v>44803</v>
@@ -9367,7 +9377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <f t="shared" si="0"/>
         <v>44810</v>
@@ -9382,7 +9392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <f t="shared" si="0"/>
         <v>44817</v>
@@ -9397,7 +9407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <f t="shared" si="0"/>
         <v>44824</v>
@@ -9412,7 +9422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <f t="shared" si="0"/>
         <v>44831</v>
@@ -9427,7 +9437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <f t="shared" si="0"/>
         <v>44838</v>
@@ -9442,7 +9452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <f t="shared" si="0"/>
         <v>44845</v>
@@ -9457,7 +9467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <f t="shared" si="0"/>
         <v>44852</v>
@@ -9472,7 +9482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <f t="shared" si="0"/>
         <v>44859</v>
@@ -9487,7 +9497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -9502,7 +9512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <f t="shared" si="0"/>
         <v>44873</v>
@@ -9517,7 +9527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <f t="shared" si="0"/>
         <v>44880</v>
@@ -9532,7 +9542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <f t="shared" si="0"/>
         <v>44887</v>
@@ -9547,7 +9557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <f t="shared" si="0"/>
         <v>44894</v>
@@ -9562,7 +9572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <f t="shared" si="0"/>
         <v>44901</v>
@@ -9577,7 +9587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <f t="shared" si="0"/>
         <v>44908</v>
@@ -9592,7 +9602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <f t="shared" si="0"/>
         <v>44915</v>
@@ -9607,7 +9617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <f t="shared" si="0"/>
         <v>44922</v>
@@ -9622,23 +9632,39 @@
         <v>20</v>
       </c>
     </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A678" s="1">
+        <f t="shared" si="0"/>
+        <v>44929</v>
+      </c>
+      <c r="B678">
+        <v>806</v>
+      </c>
+      <c r="C678" t="s">
+        <v>3</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D256">
-    <sortState ref="A2:D256">
+  <autoFilter ref="A1:D256" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D256">
       <sortCondition ref="A1:A256"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D487" r:id="rId1" location="a-8983"/>
-    <hyperlink ref="D477" r:id="rId2" location="a-8983"/>
-    <hyperlink ref="D511" r:id="rId3" location="a-8983"/>
-    <hyperlink ref="D503" r:id="rId4" location="a-8983"/>
-    <hyperlink ref="D515" r:id="rId5" location="a-8983"/>
-    <hyperlink ref="D673" r:id="rId6" location="a-8996"/>
-    <hyperlink ref="D674" r:id="rId7" location="a-8996"/>
-    <hyperlink ref="D675" r:id="rId8" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996"/>
-    <hyperlink ref="D676" r:id="rId9" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996"/>
-    <hyperlink ref="D677" r:id="rId10" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996"/>
+    <hyperlink ref="D487" r:id="rId1" location="a-8983" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D477" r:id="rId2" location="a-8983" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D511" r:id="rId3" location="a-8983" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D503" r:id="rId4" location="a-8983" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D515" r:id="rId5" location="a-8983" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D673" r:id="rId6" location="a-8996" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D674" r:id="rId7" location="a-8996" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D675" r:id="rId8" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D676" r:id="rId9" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D677" r:id="rId10" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D678" r:id="rId11" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{566606F3-88D7-46C7-ABBF-1032490F3859}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\modellclub\2003_covid_modell\_Bulletin\LeipzigPlus_24\IMISE-Epidemiologisches-Bulletin-24\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3822A296-E1C7-4167-9FDC-D8B6F81B580E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BFB228-C6C7-4001-BEE3-6A488F8AA0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2136" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2484" windowWidth="17280" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F678"/>
+  <dimension ref="A1:F679"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A675" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C678" sqref="C678:D678"/>
+      <selection activeCell="C679" sqref="C679:D679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
-        <f t="shared" ref="A658:A678" si="0">A657+7</f>
+        <f t="shared" ref="A658:A679" si="0">A657+7</f>
         <v>44789</v>
       </c>
       <c r="B658">
@@ -9644,6 +9644,21 @@
         <v>3</v>
       </c>
       <c r="D678" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A679" s="1">
+        <f t="shared" si="0"/>
+        <v>44936</v>
+      </c>
+      <c r="B679">
+        <v>710</v>
+      </c>
+      <c r="C679" t="s">
+        <v>3</v>
+      </c>
+      <c r="D679" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9665,6 +9680,7 @@
     <hyperlink ref="D676" r:id="rId9" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="D677" r:id="rId10" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D678" r:id="rId11" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{566606F3-88D7-46C7-ABBF-1032490F3859}"/>
+    <hyperlink ref="D679" r:id="rId12" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{03AC2E6D-E849-4012-B4D7-08D15888E4C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\modellclub\2003_covid_modell\_Bulletin\LeipzigPlus_24\IMISE-Epidemiologisches-Bulletin-24\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BFB228-C6C7-4001-BEE3-6A488F8AA0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5477DE-B94E-49A9-8E88-8E11C49BD0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2484" windowWidth="17280" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F679"/>
+  <dimension ref="A1:F680"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A675" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C679" sqref="C679:D679"/>
+      <selection activeCell="C680" sqref="C680:D680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
-        <f t="shared" ref="A658:A679" si="0">A657+7</f>
+        <f t="shared" ref="A658:A680" si="0">A657+7</f>
         <v>44789</v>
       </c>
       <c r="B658">
@@ -9659,6 +9659,21 @@
         <v>3</v>
       </c>
       <c r="D679" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A680" s="1">
+        <f t="shared" si="0"/>
+        <v>44943</v>
+      </c>
+      <c r="B680">
+        <v>477</v>
+      </c>
+      <c r="C680" t="s">
+        <v>3</v>
+      </c>
+      <c r="D680" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9681,6 +9696,7 @@
     <hyperlink ref="D677" r:id="rId10" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D678" r:id="rId11" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{566606F3-88D7-46C7-ABBF-1032490F3859}"/>
     <hyperlink ref="D679" r:id="rId12" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{03AC2E6D-E849-4012-B4D7-08D15888E4C6}"/>
+    <hyperlink ref="D680" r:id="rId13" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{A5DB9C72-68BE-495B-B354-EEC40AC90E12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\modellclub\2003_covid_modell\_Bulletin\LeipzigPlus_24\IMISE-Epidemiologisches-Bulletin-24\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5477DE-B94E-49A9-8E88-8E11C49BD0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616DCA62-2115-4662-A70D-6009060FC363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F680"/>
+  <dimension ref="A1:F681"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A675" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C680" sqref="C680:D680"/>
+      <selection activeCell="B682" sqref="B682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9334,7 +9334,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
-        <f t="shared" ref="A658:A680" si="0">A657+7</f>
+        <f t="shared" ref="A658:A681" si="0">A657+7</f>
         <v>44789</v>
       </c>
       <c r="B658">
@@ -9674,6 +9674,21 @@
         <v>3</v>
       </c>
       <c r="D680" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A681" s="1">
+        <f t="shared" si="0"/>
+        <v>44950</v>
+      </c>
+      <c r="B681">
+        <v>402</v>
+      </c>
+      <c r="C681" t="s">
+        <v>3</v>
+      </c>
+      <c r="D681" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9697,6 +9712,7 @@
     <hyperlink ref="D678" r:id="rId11" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{566606F3-88D7-46C7-ABBF-1032490F3859}"/>
     <hyperlink ref="D679" r:id="rId12" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{03AC2E6D-E849-4012-B4D7-08D15888E4C6}"/>
     <hyperlink ref="D680" r:id="rId13" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{A5DB9C72-68BE-495B-B354-EEC40AC90E12}"/>
+    <hyperlink ref="D681" r:id="rId14" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{86701979-CBD5-4AC1-8356-8AAFFBCFEE3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\modellclub\2003_covid_modell\_Bulletin\LeipzigPlus_24\IMISE-Epidemiologisches-Bulletin-24\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616DCA62-2115-4662-A70D-6009060FC363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2C5BFB-5A8A-4E11-BD6B-C9BA2445B86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +118,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F681"/>
+  <dimension ref="A1:F682"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A675" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B682" sqref="B682"/>
+      <selection activeCell="B683" sqref="B683"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44053</v>
       </c>
@@ -465,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44054</v>
       </c>
@@ -479,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44055</v>
       </c>
@@ -493,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44056</v>
       </c>
@@ -507,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44057</v>
       </c>
@@ -521,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44058</v>
       </c>
@@ -532,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44059</v>
       </c>
@@ -543,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44060</v>
       </c>
@@ -557,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44061</v>
       </c>
@@ -571,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44062</v>
       </c>
@@ -585,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44063</v>
       </c>
@@ -599,7 +605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44064</v>
       </c>
@@ -613,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44065</v>
       </c>
@@ -624,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44066</v>
       </c>
@@ -635,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44067</v>
       </c>
@@ -649,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44068</v>
       </c>
@@ -663,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44069</v>
       </c>
@@ -677,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -691,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44071</v>
       </c>
@@ -705,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44072</v>
       </c>
@@ -716,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44073</v>
       </c>
@@ -727,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -741,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44075</v>
       </c>
@@ -755,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44076</v>
       </c>
@@ -769,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44077</v>
       </c>
@@ -783,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44078</v>
       </c>
@@ -797,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44079</v>
       </c>
@@ -808,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -819,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44081</v>
       </c>
@@ -833,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44082</v>
       </c>
@@ -847,7 +853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44083</v>
       </c>
@@ -861,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44084</v>
       </c>
@@ -875,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44085</v>
       </c>
@@ -889,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44086</v>
       </c>
@@ -900,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44087</v>
       </c>
@@ -911,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44088</v>
       </c>
@@ -925,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44089</v>
       </c>
@@ -939,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44090</v>
       </c>
@@ -953,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44091</v>
       </c>
@@ -967,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44092</v>
       </c>
@@ -981,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44093</v>
       </c>
@@ -992,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44094</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44095</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44096</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44097</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44098</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44099</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44100</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44101</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44102</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44103</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44104</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44105</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44106</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44107</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44108</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44109</v>
       </c>
@@ -1201,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44110</v>
       </c>
@@ -1215,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44111</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44112</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44113</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44114</v>
       </c>
@@ -1268,7 +1274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44115</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44116</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44119</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44120</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44121</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44122</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44123</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44124</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44125</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44126</v>
       </c>
@@ -1427,7 +1433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44127</v>
       </c>
@@ -1441,7 +1447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44128</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44129</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44130</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44131</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44132</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44133</v>
       </c>
@@ -1519,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44134</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44135</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44136</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44137</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44138</v>
       </c>
@@ -1583,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44139</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44140</v>
       </c>
@@ -1611,7 +1617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44141</v>
       </c>
@@ -1625,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44142</v>
       </c>
@@ -1636,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44143</v>
       </c>
@@ -1647,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44144</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44145</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44146</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44147</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44148</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44149</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44150</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44151</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44152</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44153</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44154</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44155</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44156</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44157</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44158</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44159</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44160</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44161</v>
       </c>
@@ -1884,7 +1890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44162</v>
       </c>
@@ -1898,7 +1904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44163</v>
       </c>
@@ -1909,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44164</v>
       </c>
@@ -1920,7 +1926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44165</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44166</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44167</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44168</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44169</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44170</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44171</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44172</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44173</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44175</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44176</v>
       </c>
@@ -2082,7 +2088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44177</v>
       </c>
@@ -2093,7 +2099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44178</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44179</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44180</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44181</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44182</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44183</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44184</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44185</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44186</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44187</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44188</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44189</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44190</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44191</v>
       </c>
@@ -2274,7 +2280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44192</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44193</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44194</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44195</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44198</v>
       </c>
@@ -2363,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44199</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44200</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44201</v>
       </c>
@@ -2402,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44202</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44203</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44204</v>
       </c>
@@ -2444,7 +2450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44205</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44206</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44207</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44208</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44209</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44210</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44211</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44212</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44213</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44214</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44215</v>
       </c>
@@ -2586,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44216</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44217</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44218</v>
       </c>
@@ -2628,7 +2634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44219</v>
       </c>
@@ -2639,7 +2645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44220</v>
       </c>
@@ -2650,7 +2656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44221</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44222</v>
       </c>
@@ -2678,7 +2684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44223</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44224</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44225</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44226</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -2742,7 +2748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44228</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44229</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44230</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -2798,7 +2804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44232</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44233</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44234</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44235</v>
       </c>
@@ -2848,7 +2854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44237</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44238</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44239</v>
       </c>
@@ -2904,7 +2910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44240</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44241</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44242</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44243</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44244</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44245</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44246</v>
       </c>
@@ -2996,7 +3002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44247</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44248</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44249</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44250</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44251</v>
       </c>
@@ -3060,7 +3066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44252</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44253</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44254</v>
       </c>
@@ -3099,7 +3105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44255</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44256</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44257</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44258</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44259</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44260</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44261</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44262</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44263</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44264</v>
       </c>
@@ -3230,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44265</v>
       </c>
@@ -3244,7 +3250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44266</v>
       </c>
@@ -3258,7 +3264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44267</v>
       </c>
@@ -3272,7 +3278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44268</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44269</v>
       </c>
@@ -3294,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44270</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44271</v>
       </c>
@@ -3322,7 +3328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44272</v>
       </c>
@@ -3336,7 +3342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44273</v>
       </c>
@@ -3350,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44274</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44275</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44276</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44277</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44278</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44279</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44280</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44281</v>
       </c>
@@ -3456,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44282</v>
       </c>
@@ -3467,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44283</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44284</v>
       </c>
@@ -3492,7 +3498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44285</v>
       </c>
@@ -3506,7 +3512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44286</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44287</v>
       </c>
@@ -3534,7 +3540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44288</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44289</v>
       </c>
@@ -3562,7 +3568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44290</v>
       </c>
@@ -3576,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44291</v>
       </c>
@@ -3590,7 +3596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44292</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44293</v>
       </c>
@@ -3618,7 +3624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44294</v>
       </c>
@@ -3632,7 +3638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44295</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44296</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44297</v>
       </c>
@@ -3674,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44298</v>
       </c>
@@ -3688,7 +3694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44299</v>
       </c>
@@ -3702,7 +3708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44300</v>
       </c>
@@ -3716,7 +3722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44301</v>
       </c>
@@ -3730,7 +3736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44302</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44303</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44304</v>
       </c>
@@ -3772,7 +3778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44305</v>
       </c>
@@ -3786,7 +3792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44306</v>
       </c>
@@ -3800,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44307</v>
       </c>
@@ -3814,7 +3820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44308</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44309</v>
       </c>
@@ -3842,7 +3848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44310</v>
       </c>
@@ -3856,7 +3862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44311</v>
       </c>
@@ -3870,7 +3876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44312</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44313</v>
       </c>
@@ -3898,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44314</v>
       </c>
@@ -3912,7 +3918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44315</v>
       </c>
@@ -3926,7 +3932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44316</v>
       </c>
@@ -3940,7 +3946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44317</v>
       </c>
@@ -3954,7 +3960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44318</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44319</v>
       </c>
@@ -3982,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44320</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44321</v>
       </c>
@@ -4010,7 +4016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44322</v>
       </c>
@@ -4024,7 +4030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44323</v>
       </c>
@@ -4038,7 +4044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44324</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44325</v>
       </c>
@@ -4066,7 +4072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44326</v>
       </c>
@@ -4080,7 +4086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44327</v>
       </c>
@@ -4094,7 +4100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44328</v>
       </c>
@@ -4108,7 +4114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44329</v>
       </c>
@@ -4119,7 +4125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44330</v>
       </c>
@@ -4130,7 +4136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44331</v>
       </c>
@@ -4141,7 +4147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44332</v>
       </c>
@@ -4152,7 +4158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44333</v>
       </c>
@@ -4166,7 +4172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44334</v>
       </c>
@@ -4180,7 +4186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44335</v>
       </c>
@@ -4194,7 +4200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44336</v>
       </c>
@@ -4208,7 +4214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44337</v>
       </c>
@@ -4222,7 +4228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44338</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44339</v>
       </c>
@@ -4244,7 +4250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44340</v>
       </c>
@@ -4255,7 +4261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44341</v>
       </c>
@@ -4269,7 +4275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44342</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44343</v>
       </c>
@@ -4297,7 +4303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44344</v>
       </c>
@@ -4311,7 +4317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44345</v>
       </c>
@@ -4322,7 +4328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44346</v>
       </c>
@@ -4333,7 +4339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44347</v>
       </c>
@@ -4347,7 +4353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44348</v>
       </c>
@@ -4361,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44349</v>
       </c>
@@ -4375,7 +4381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44350</v>
       </c>
@@ -4389,7 +4395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44351</v>
       </c>
@@ -4403,7 +4409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44352</v>
       </c>
@@ -4414,7 +4420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44353</v>
       </c>
@@ -4425,7 +4431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44354</v>
       </c>
@@ -4439,7 +4445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44355</v>
       </c>
@@ -4453,7 +4459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44356</v>
       </c>
@@ -4467,7 +4473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44357</v>
       </c>
@@ -4481,7 +4487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44358</v>
       </c>
@@ -4495,7 +4501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44359</v>
       </c>
@@ -4506,7 +4512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44360</v>
       </c>
@@ -4517,7 +4523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44361</v>
       </c>
@@ -4531,7 +4537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44362</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44363</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44364</v>
       </c>
@@ -4573,7 +4579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44365</v>
       </c>
@@ -4587,7 +4593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44366</v>
       </c>
@@ -4598,7 +4604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44367</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44368</v>
       </c>
@@ -4623,7 +4629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44369</v>
       </c>
@@ -4637,7 +4643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44370</v>
       </c>
@@ -4651,7 +4657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44371</v>
       </c>
@@ -4665,7 +4671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44372</v>
       </c>
@@ -4679,7 +4685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44373</v>
       </c>
@@ -4690,7 +4696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44374</v>
       </c>
@@ -4701,7 +4707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44375</v>
       </c>
@@ -4715,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44376</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -4743,7 +4749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44378</v>
       </c>
@@ -4757,7 +4763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44379</v>
       </c>
@@ -4771,7 +4777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44380</v>
       </c>
@@ -4782,7 +4788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44381</v>
       </c>
@@ -4793,7 +4799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44382</v>
       </c>
@@ -4807,7 +4813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44383</v>
       </c>
@@ -4821,7 +4827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44384</v>
       </c>
@@ -4835,7 +4841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44385</v>
       </c>
@@ -4849,7 +4855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44386</v>
       </c>
@@ -4863,7 +4869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44387</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44388</v>
       </c>
@@ -4885,7 +4891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44389</v>
       </c>
@@ -4899,7 +4905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44390</v>
       </c>
@@ -4913,7 +4919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44391</v>
       </c>
@@ -4927,7 +4933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44392</v>
       </c>
@@ -4941,7 +4947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44393</v>
       </c>
@@ -4955,7 +4961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44394</v>
       </c>
@@ -4966,7 +4972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44395</v>
       </c>
@@ -4977,7 +4983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44396</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44397</v>
       </c>
@@ -5005,7 +5011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44398</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44399</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44400</v>
       </c>
@@ -5047,7 +5053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44401</v>
       </c>
@@ -5058,7 +5064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44402</v>
       </c>
@@ -5069,7 +5075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44403</v>
       </c>
@@ -5083,7 +5089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44404</v>
       </c>
@@ -5097,7 +5103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44405</v>
       </c>
@@ -5111,7 +5117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44406</v>
       </c>
@@ -5125,7 +5131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44407</v>
       </c>
@@ -5139,7 +5145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44408</v>
       </c>
@@ -5150,7 +5156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44409</v>
       </c>
@@ -5161,7 +5167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44410</v>
       </c>
@@ -5175,7 +5181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44411</v>
       </c>
@@ -5189,7 +5195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44412</v>
       </c>
@@ -5203,7 +5209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44413</v>
       </c>
@@ -5217,7 +5223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44414</v>
       </c>
@@ -5231,7 +5237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44415</v>
       </c>
@@ -5242,7 +5248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44416</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44417</v>
       </c>
@@ -5267,7 +5273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>44418</v>
       </c>
@@ -5281,7 +5287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44419</v>
       </c>
@@ -5295,7 +5301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44420</v>
       </c>
@@ -5309,7 +5315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44421</v>
       </c>
@@ -5323,7 +5329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44422</v>
       </c>
@@ -5334,7 +5340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44423</v>
       </c>
@@ -5345,7 +5351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44424</v>
       </c>
@@ -5359,7 +5365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44425</v>
       </c>
@@ -5373,7 +5379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44426</v>
       </c>
@@ -5387,7 +5393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44427</v>
       </c>
@@ -5401,7 +5407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44428</v>
       </c>
@@ -5415,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44429</v>
       </c>
@@ -5426,7 +5432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44430</v>
       </c>
@@ -5437,7 +5443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44431</v>
       </c>
@@ -5451,7 +5457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44432</v>
       </c>
@@ -5465,7 +5471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44433</v>
       </c>
@@ -5479,7 +5485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44434</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44435</v>
       </c>
@@ -5507,7 +5513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44436</v>
       </c>
@@ -5521,7 +5527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44437</v>
       </c>
@@ -5535,7 +5541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44438</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44439</v>
       </c>
@@ -5563,7 +5569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44440</v>
       </c>
@@ -5577,7 +5583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44441</v>
       </c>
@@ -5591,7 +5597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44442</v>
       </c>
@@ -5605,7 +5611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44443</v>
       </c>
@@ -5619,7 +5625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44444</v>
       </c>
@@ -5633,7 +5639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44445</v>
       </c>
@@ -5647,7 +5653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44446</v>
       </c>
@@ -5661,7 +5667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44447</v>
       </c>
@@ -5675,7 +5681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44448</v>
       </c>
@@ -5689,7 +5695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>44449</v>
       </c>
@@ -5703,7 +5709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>44450</v>
       </c>
@@ -5717,7 +5723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>44451</v>
       </c>
@@ -5731,7 +5737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>44452</v>
       </c>
@@ -5745,7 +5751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>44453</v>
       </c>
@@ -5759,7 +5765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44454</v>
       </c>
@@ -5773,7 +5779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>44455</v>
       </c>
@@ -5787,7 +5793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>44456</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>44457</v>
       </c>
@@ -5815,7 +5821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>44458</v>
       </c>
@@ -5829,7 +5835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>44459</v>
       </c>
@@ -5843,7 +5849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>44460</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>44461</v>
       </c>
@@ -5871,7 +5877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>44462</v>
       </c>
@@ -5885,7 +5891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>44463</v>
       </c>
@@ -5899,7 +5905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>44464</v>
       </c>
@@ -5913,7 +5919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>44465</v>
       </c>
@@ -5927,7 +5933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>44466</v>
       </c>
@@ -5941,7 +5947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44467</v>
       </c>
@@ -5955,7 +5961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44468</v>
       </c>
@@ -5969,7 +5975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>44469</v>
       </c>
@@ -5983,7 +5989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>44470</v>
       </c>
@@ -5997,7 +6003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>44471</v>
       </c>
@@ -6011,7 +6017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>44472</v>
       </c>
@@ -6025,7 +6031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>44473</v>
       </c>
@@ -6039,7 +6045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44474</v>
       </c>
@@ -6053,7 +6059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>44475</v>
       </c>
@@ -6067,7 +6073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>44476</v>
       </c>
@@ -6081,7 +6087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>44477</v>
       </c>
@@ -6095,7 +6101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>44478</v>
       </c>
@@ -6109,7 +6115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>44479</v>
       </c>
@@ -6123,7 +6129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>44480</v>
       </c>
@@ -6137,7 +6143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>44481</v>
       </c>
@@ -6151,7 +6157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>44482</v>
       </c>
@@ -6165,7 +6171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>44483</v>
       </c>
@@ -6179,7 +6185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>44484</v>
       </c>
@@ -6193,7 +6199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>44485</v>
       </c>
@@ -6207,7 +6213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>44486</v>
       </c>
@@ -6221,7 +6227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>44487</v>
       </c>
@@ -6235,7 +6241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>44488</v>
       </c>
@@ -6249,7 +6255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>44489</v>
       </c>
@@ -6263,7 +6269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>44490</v>
       </c>
@@ -6277,7 +6283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>44491</v>
       </c>
@@ -6291,7 +6297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>44492</v>
       </c>
@@ -6305,7 +6311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>44493</v>
       </c>
@@ -6319,7 +6325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>44494</v>
       </c>
@@ -6333,7 +6339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>44495</v>
       </c>
@@ -6347,7 +6353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>44496</v>
       </c>
@@ -6361,7 +6367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>44497</v>
       </c>
@@ -6375,7 +6381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>44498</v>
       </c>
@@ -6389,7 +6395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>44499</v>
       </c>
@@ -6403,7 +6409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>44500</v>
       </c>
@@ -6417,7 +6423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>44501</v>
       </c>
@@ -6431,7 +6437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>44502</v>
       </c>
@@ -6445,7 +6451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>44503</v>
       </c>
@@ -6459,7 +6465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>44504</v>
       </c>
@@ -6473,7 +6479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>44505</v>
       </c>
@@ -6487,7 +6493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>44506</v>
       </c>
@@ -6501,7 +6507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>44507</v>
       </c>
@@ -6515,7 +6521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>44508</v>
       </c>
@@ -6529,7 +6535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>44509</v>
       </c>
@@ -6543,7 +6549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>44510</v>
       </c>
@@ -6557,7 +6563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>44511</v>
       </c>
@@ -6571,7 +6577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>44512</v>
       </c>
@@ -6585,7 +6591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>44513</v>
       </c>
@@ -6599,7 +6605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>44514</v>
       </c>
@@ -6613,7 +6619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>44515</v>
       </c>
@@ -6627,7 +6633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>44516</v>
       </c>
@@ -6641,7 +6647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>44517</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>44518</v>
       </c>
@@ -6669,7 +6675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>44519</v>
       </c>
@@ -6683,7 +6689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>44520</v>
       </c>
@@ -6697,7 +6703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>44521</v>
       </c>
@@ -6711,7 +6717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>44522</v>
       </c>
@@ -6725,7 +6731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>44523</v>
       </c>
@@ -6739,7 +6745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>44524</v>
       </c>
@@ -6753,7 +6759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>44525</v>
       </c>
@@ -6767,7 +6773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>44526</v>
       </c>
@@ -6781,7 +6787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>44527</v>
       </c>
@@ -6795,7 +6801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>44528</v>
       </c>
@@ -6809,7 +6815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>44529</v>
       </c>
@@ -6823,7 +6829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>44530</v>
       </c>
@@ -6837,7 +6843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>44531</v>
       </c>
@@ -6851,7 +6857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>44532</v>
       </c>
@@ -6865,7 +6871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>44533</v>
       </c>
@@ -6879,7 +6885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>44534</v>
       </c>
@@ -6893,7 +6899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>44535</v>
       </c>
@@ -6907,7 +6913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>44536</v>
       </c>
@@ -6921,7 +6927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>44537</v>
       </c>
@@ -6935,7 +6941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>44538</v>
       </c>
@@ -6949,7 +6955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>44539</v>
       </c>
@@ -6963,7 +6969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>44540</v>
       </c>
@@ -6977,7 +6983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>44541</v>
       </c>
@@ -6991,7 +6997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>44542</v>
       </c>
@@ -7005,7 +7011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>44543</v>
       </c>
@@ -7019,7 +7025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>44544</v>
       </c>
@@ -7033,7 +7039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>44545</v>
       </c>
@@ -7047,7 +7053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>44546</v>
       </c>
@@ -7061,7 +7067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>44547</v>
       </c>
@@ -7075,7 +7081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>44548</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>44549</v>
       </c>
@@ -7103,7 +7109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>44550</v>
       </c>
@@ -7117,7 +7123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>44551</v>
       </c>
@@ -7131,7 +7137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>44552</v>
       </c>
@@ -7145,7 +7151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>44553</v>
       </c>
@@ -7159,7 +7165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>44554</v>
       </c>
@@ -7173,7 +7179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>44555</v>
       </c>
@@ -7187,7 +7193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>44556</v>
       </c>
@@ -7201,7 +7207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>44557</v>
       </c>
@@ -7215,7 +7221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>44558</v>
       </c>
@@ -7229,7 +7235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>44559</v>
       </c>
@@ -7243,7 +7249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>44560</v>
       </c>
@@ -7257,7 +7263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>44561</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>44562</v>
       </c>
@@ -7285,7 +7291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>44563</v>
       </c>
@@ -7299,7 +7305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>44564</v>
       </c>
@@ -7313,7 +7319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>44565</v>
       </c>
@@ -7327,7 +7333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>44566</v>
       </c>
@@ -7341,7 +7347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>44567</v>
       </c>
@@ -7355,7 +7361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>44568</v>
       </c>
@@ -7369,7 +7375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>44569</v>
       </c>
@@ -7383,7 +7389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>44570</v>
       </c>
@@ -7397,7 +7403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>44571</v>
       </c>
@@ -7411,7 +7417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>44572</v>
       </c>
@@ -7425,7 +7431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>44573</v>
       </c>
@@ -7439,7 +7445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>44574</v>
       </c>
@@ -7453,7 +7459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>44575</v>
       </c>
@@ -7467,7 +7473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>44576</v>
       </c>
@@ -7481,7 +7487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>44577</v>
       </c>
@@ -7495,7 +7501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>44578</v>
       </c>
@@ -7509,7 +7515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>44579</v>
       </c>
@@ -7523,7 +7529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>44580</v>
       </c>
@@ -7537,7 +7543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>44581</v>
       </c>
@@ -7551,7 +7557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>44582</v>
       </c>
@@ -7565,7 +7571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>44583</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>44584</v>
       </c>
@@ -7593,7 +7599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>44585</v>
       </c>
@@ -7607,7 +7613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>44586</v>
       </c>
@@ -7621,7 +7627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>44587</v>
       </c>
@@ -7635,7 +7641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>44588</v>
       </c>
@@ -7649,7 +7655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>44589</v>
       </c>
@@ -7663,7 +7669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>44590</v>
       </c>
@@ -7677,7 +7683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>44591</v>
       </c>
@@ -7691,7 +7697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>44592</v>
       </c>
@@ -7705,7 +7711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>44593</v>
       </c>
@@ -7719,7 +7725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>44594</v>
       </c>
@@ -7733,7 +7739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>44595</v>
       </c>
@@ -7747,7 +7753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>44596</v>
       </c>
@@ -7761,7 +7767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>44597</v>
       </c>
@@ -7775,7 +7781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>44598</v>
       </c>
@@ -7789,7 +7795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>44599</v>
       </c>
@@ -7803,7 +7809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>44600</v>
       </c>
@@ -7817,7 +7823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>44601</v>
       </c>
@@ -7831,7 +7837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>44602</v>
       </c>
@@ -7845,7 +7851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>44603</v>
       </c>
@@ -7859,7 +7865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>44604</v>
       </c>
@@ -7873,7 +7879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>44605</v>
       </c>
@@ -7887,7 +7893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>44606</v>
       </c>
@@ -7901,7 +7907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>44607</v>
       </c>
@@ -7915,7 +7921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>44608</v>
       </c>
@@ -7929,7 +7935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>44609</v>
       </c>
@@ -7943,7 +7949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>44610</v>
       </c>
@@ -7957,7 +7963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>44611</v>
       </c>
@@ -7971,7 +7977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>44612</v>
       </c>
@@ -7985,7 +7991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>44613</v>
       </c>
@@ -7999,7 +8005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>44614</v>
       </c>
@@ -8013,7 +8019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>44615</v>
       </c>
@@ -8027,7 +8033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>44616</v>
       </c>
@@ -8041,7 +8047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>44617</v>
       </c>
@@ -8055,7 +8061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>44618</v>
       </c>
@@ -8069,7 +8075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>44619</v>
       </c>
@@ -8083,7 +8089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>44620</v>
       </c>
@@ -8097,7 +8103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>44621</v>
       </c>
@@ -8111,7 +8117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>44622</v>
       </c>
@@ -8125,7 +8131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>44623</v>
       </c>
@@ -8139,7 +8145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>44624</v>
       </c>
@@ -8153,7 +8159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>44625</v>
       </c>
@@ -8167,7 +8173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>44626</v>
       </c>
@@ -8181,7 +8187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>44627</v>
       </c>
@@ -8195,7 +8201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>44628</v>
       </c>
@@ -8209,7 +8215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>44629</v>
       </c>
@@ -8223,7 +8229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>44630</v>
       </c>
@@ -8237,7 +8243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>44631</v>
       </c>
@@ -8251,7 +8257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>44632</v>
       </c>
@@ -8265,7 +8271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>44633</v>
       </c>
@@ -8279,7 +8285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>44634</v>
       </c>
@@ -8293,7 +8299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>44635</v>
       </c>
@@ -8307,7 +8313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>44636</v>
       </c>
@@ -8321,7 +8327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>44637</v>
       </c>
@@ -8335,7 +8341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>44638</v>
       </c>
@@ -8349,7 +8355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>44639</v>
       </c>
@@ -8363,7 +8369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>44640</v>
       </c>
@@ -8377,7 +8383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>44641</v>
       </c>
@@ -8391,7 +8397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>44642</v>
       </c>
@@ -8405,7 +8411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>44643</v>
       </c>
@@ -8419,7 +8425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>44644</v>
       </c>
@@ -8433,7 +8439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>44645</v>
       </c>
@@ -8447,7 +8453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>44646</v>
       </c>
@@ -8461,7 +8467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>44647</v>
       </c>
@@ -8475,7 +8481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>44648</v>
       </c>
@@ -8489,7 +8495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>44649</v>
       </c>
@@ -8503,7 +8509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>44650</v>
       </c>
@@ -8517,7 +8523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>44651</v>
       </c>
@@ -8531,7 +8537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>44652</v>
       </c>
@@ -8545,7 +8551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>44653</v>
       </c>
@@ -8559,7 +8565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>44654</v>
       </c>
@@ -8573,7 +8579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>44655</v>
       </c>
@@ -8587,7 +8593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>44656</v>
       </c>
@@ -8601,7 +8607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>44657</v>
       </c>
@@ -8615,7 +8621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>44658</v>
       </c>
@@ -8629,7 +8635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>44659</v>
       </c>
@@ -8643,7 +8649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>44660</v>
       </c>
@@ -8657,7 +8663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>44661</v>
       </c>
@@ -8671,7 +8677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>44662</v>
       </c>
@@ -8685,7 +8691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>44663</v>
       </c>
@@ -8699,7 +8705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>44664</v>
       </c>
@@ -8713,7 +8719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>44665</v>
       </c>
@@ -8727,7 +8733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>44670</v>
       </c>
@@ -8741,7 +8747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>44671</v>
       </c>
@@ -8755,7 +8761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>44672</v>
       </c>
@@ -8769,7 +8775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>44673</v>
       </c>
@@ -8785,7 +8791,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>44676</v>
       </c>
@@ -8800,7 +8806,7 @@
       </c>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>44677</v>
       </c>
@@ -8814,7 +8820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>44678</v>
       </c>
@@ -8828,7 +8834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>44679</v>
       </c>
@@ -8842,7 +8848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>44680</v>
       </c>
@@ -8856,7 +8862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>44683</v>
       </c>
@@ -8870,7 +8876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>44684</v>
       </c>
@@ -8884,7 +8890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>44685</v>
       </c>
@@ -8898,7 +8904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>44686</v>
       </c>
@@ -8912,7 +8918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>44687</v>
       </c>
@@ -8926,7 +8932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>44690</v>
       </c>
@@ -8940,7 +8946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>44691</v>
       </c>
@@ -8954,7 +8960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>44692</v>
       </c>
@@ -8968,7 +8974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>44693</v>
       </c>
@@ -8982,7 +8988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>44694</v>
       </c>
@@ -8996,7 +9002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>44697</v>
       </c>
@@ -9010,7 +9016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>44698</v>
       </c>
@@ -9024,7 +9030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>44699</v>
       </c>
@@ -9038,7 +9044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>44700</v>
       </c>
@@ -9052,7 +9058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>44701</v>
       </c>
@@ -9066,7 +9072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>44704</v>
       </c>
@@ -9080,7 +9086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>44711</v>
       </c>
@@ -9094,7 +9100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>44714</v>
       </c>
@@ -9108,7 +9114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>44719</v>
       </c>
@@ -9122,7 +9128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>44721</v>
       </c>
@@ -9136,7 +9142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>44725</v>
       </c>
@@ -9150,7 +9156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>44728</v>
       </c>
@@ -9164,7 +9170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>44732</v>
       </c>
@@ -9178,7 +9184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>44735</v>
       </c>
@@ -9192,7 +9198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>44739</v>
       </c>
@@ -9206,7 +9212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>44742</v>
       </c>
@@ -9220,7 +9226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>44746</v>
       </c>
@@ -9234,7 +9240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>44749</v>
       </c>
@@ -9248,7 +9254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>44753</v>
       </c>
@@ -9262,7 +9268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>44756</v>
       </c>
@@ -9276,7 +9282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>44761</v>
       </c>
@@ -9290,7 +9296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>44768</v>
       </c>
@@ -9304,7 +9310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>44775</v>
       </c>
@@ -9318,7 +9324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>44782</v>
       </c>
@@ -9332,9 +9338,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <f t="shared" ref="A658:A681" si="0">A657+7</f>
+        <f t="shared" ref="A658:A682" si="0">A657+7</f>
         <v>44789</v>
       </c>
       <c r="B658">
@@ -9347,7 +9353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <f t="shared" si="0"/>
         <v>44796</v>
@@ -9362,7 +9368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <f t="shared" si="0"/>
         <v>44803</v>
@@ -9377,7 +9383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <f t="shared" si="0"/>
         <v>44810</v>
@@ -9392,7 +9398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <f t="shared" si="0"/>
         <v>44817</v>
@@ -9407,7 +9413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <f t="shared" si="0"/>
         <v>44824</v>
@@ -9422,7 +9428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <f t="shared" si="0"/>
         <v>44831</v>
@@ -9437,7 +9443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <f t="shared" si="0"/>
         <v>44838</v>
@@ -9452,7 +9458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <f t="shared" si="0"/>
         <v>44845</v>
@@ -9467,7 +9473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <f t="shared" si="0"/>
         <v>44852</v>
@@ -9482,7 +9488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <f t="shared" si="0"/>
         <v>44859</v>
@@ -9497,7 +9503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -9512,7 +9518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <f t="shared" si="0"/>
         <v>44873</v>
@@ -9527,7 +9533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <f t="shared" si="0"/>
         <v>44880</v>
@@ -9542,7 +9548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <f t="shared" si="0"/>
         <v>44887</v>
@@ -9557,7 +9563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <f t="shared" si="0"/>
         <v>44894</v>
@@ -9572,7 +9578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <f t="shared" si="0"/>
         <v>44901</v>
@@ -9587,7 +9593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <f t="shared" si="0"/>
         <v>44908</v>
@@ -9602,7 +9608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <f t="shared" si="0"/>
         <v>44915</v>
@@ -9617,7 +9623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <f t="shared" si="0"/>
         <v>44922</v>
@@ -9632,7 +9638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <f t="shared" si="0"/>
         <v>44929</v>
@@ -9647,7 +9653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <f t="shared" si="0"/>
         <v>44936</v>
@@ -9662,7 +9668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <f t="shared" si="0"/>
         <v>44943</v>
@@ -9677,7 +9683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <f t="shared" si="0"/>
         <v>44950</v>
@@ -9689,6 +9695,21 @@
         <v>3</v>
       </c>
       <c r="D681" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682" s="1">
+        <f t="shared" si="0"/>
+        <v>44957</v>
+      </c>
+      <c r="B682">
+        <v>322</v>
+      </c>
+      <c r="C682" t="s">
+        <v>3</v>
+      </c>
+      <c r="D682" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9698,6 +9719,7 @@
       <sortCondition ref="A1:A256"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D487" r:id="rId1" location="a-8983" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D477" r:id="rId2" location="a-8983" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -9713,6 +9735,7 @@
     <hyperlink ref="D679" r:id="rId12" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{03AC2E6D-E849-4012-B4D7-08D15888E4C6}"/>
     <hyperlink ref="D680" r:id="rId13" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{A5DB9C72-68BE-495B-B354-EEC40AC90E12}"/>
     <hyperlink ref="D681" r:id="rId14" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{86701979-CBD5-4AC1-8356-8AAFFBCFEE3C}"/>
+    <hyperlink ref="D682" r:id="rId15" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{F6664661-EE0F-43BE-9CAC-8D4B894426BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\modellclub\2003_covid_modell\_Bulletin\LeipzigPlus_24\IMISE-Epidemiologisches-Bulletin-24\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2C5BFB-5A8A-4E11-BD6B-C9BA2445B86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577C8804-CD55-4358-9BB4-AA34034F8E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -435,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F682"/>
+  <dimension ref="A1:F683"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A675" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B683" sqref="B683"/>
+      <selection activeCell="D683" sqref="D683"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44053</v>
       </c>
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44054</v>
       </c>
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44055</v>
       </c>
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44056</v>
       </c>
@@ -513,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44057</v>
       </c>
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44058</v>
       </c>
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44059</v>
       </c>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44060</v>
       </c>
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44061</v>
       </c>
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44062</v>
       </c>
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44063</v>
       </c>
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44064</v>
       </c>
@@ -619,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44065</v>
       </c>
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44066</v>
       </c>
@@ -641,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44067</v>
       </c>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44068</v>
       </c>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44069</v>
       </c>
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44071</v>
       </c>
@@ -711,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44072</v>
       </c>
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44073</v>
       </c>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44075</v>
       </c>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44076</v>
       </c>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44077</v>
       </c>
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44078</v>
       </c>
@@ -803,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44079</v>
       </c>
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44081</v>
       </c>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44082</v>
       </c>
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44083</v>
       </c>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44084</v>
       </c>
@@ -881,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44085</v>
       </c>
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44086</v>
       </c>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44087</v>
       </c>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44088</v>
       </c>
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44089</v>
       </c>
@@ -945,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44090</v>
       </c>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44091</v>
       </c>
@@ -973,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44092</v>
       </c>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44093</v>
       </c>
@@ -998,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44094</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44095</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44096</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44097</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44098</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44099</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44100</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44101</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44102</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44103</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44104</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44105</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44106</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44107</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44108</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44109</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44110</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44111</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44112</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44113</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44114</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44115</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44116</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44119</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44120</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44121</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44122</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44123</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44124</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44125</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44126</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44127</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44128</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44129</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44130</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44131</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44132</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44133</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44134</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44135</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44136</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44137</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44138</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44139</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44140</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44141</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44142</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44143</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44144</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44145</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44146</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44147</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44148</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44149</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44150</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44151</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44152</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44153</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44154</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44155</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44156</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44157</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44158</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44159</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44160</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44161</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44162</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44163</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44164</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44165</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44166</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44167</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44168</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44169</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44170</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44171</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44172</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44173</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44175</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44176</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44177</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44178</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44179</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44180</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44181</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44182</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44183</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44184</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44185</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44186</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44187</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44188</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44189</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44190</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44191</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44192</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44193</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44194</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44195</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44198</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44199</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44200</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44201</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44202</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44203</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44204</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44205</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44206</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44207</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44208</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44209</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44210</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44211</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44212</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44213</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44214</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44215</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44216</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44217</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44218</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44219</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44220</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44221</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44222</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44223</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44224</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44225</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44226</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44228</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44229</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44230</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44232</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44233</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44234</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44235</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44237</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44238</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44239</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44240</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44241</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44242</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44243</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44244</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44245</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44246</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44247</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44248</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44249</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44250</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44251</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44252</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44253</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44254</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44255</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44256</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44257</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44258</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44259</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44260</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44261</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44262</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44263</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44264</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44265</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44266</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44267</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44268</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44269</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44270</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44271</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44272</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44273</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44274</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44275</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44276</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44277</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44278</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44279</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44280</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44281</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44282</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44283</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44284</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44285</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44286</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44287</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44288</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44289</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44290</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44291</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44292</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44293</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44294</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44295</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44296</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44297</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44298</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44299</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44300</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44301</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44302</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44303</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44304</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44305</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44306</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44307</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44308</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44309</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44310</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44311</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44312</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44313</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44314</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44315</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44316</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44317</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44318</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44319</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44320</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44321</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44322</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44323</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44324</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44325</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44326</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44327</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44328</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44329</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44330</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44331</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44332</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44333</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44334</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44335</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44336</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44337</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44338</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44339</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44340</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44341</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44342</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44343</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44344</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44345</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44346</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44347</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44348</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44349</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44350</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44351</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44352</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44353</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44354</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44355</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44356</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44357</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44358</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44359</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44360</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44361</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44362</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44363</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44364</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44365</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44366</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44367</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44368</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44369</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44370</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44371</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44372</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44373</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44374</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44375</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44376</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44378</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44379</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44380</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44381</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44382</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44383</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44384</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44385</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44386</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44387</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44388</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44389</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44390</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44391</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44392</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44393</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44394</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44395</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44396</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44397</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44398</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44399</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44400</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44401</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44402</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44403</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44404</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44405</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44406</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44407</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44408</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44409</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44410</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44411</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>44412</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>44413</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>44414</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>44415</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>44416</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>44417</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>44418</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>44419</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>44420</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>44421</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44422</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44423</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44424</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44425</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>44426</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>44427</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44428</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>44429</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>44430</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44431</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>44432</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44433</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>44434</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>44435</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44436</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>44437</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>44438</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44439</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>44440</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>44441</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44442</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>44443</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>44444</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>44445</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>44446</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>44447</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>44448</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>44449</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>44450</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>44451</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>44452</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>44453</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>44454</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>44455</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>44456</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>44457</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>44458</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>44459</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>44460</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>44461</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>44462</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>44463</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>44464</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>44465</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>44466</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>44467</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>44468</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>44469</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>44470</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>44471</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>44472</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>44473</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>44474</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>44475</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>44476</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>44477</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44478</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>44479</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>44480</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>44481</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>44482</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>44483</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>44484</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>44485</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>44486</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>44487</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>44488</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>44489</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>44490</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>44491</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>44492</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>44493</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>44494</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>44495</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>44496</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>44497</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>44498</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>44499</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>44500</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>44501</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>44502</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>44503</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>44504</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>44505</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>44506</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>44507</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>44508</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>44509</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>44510</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>44511</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>44512</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>44513</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>44514</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>44515</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>44516</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>44517</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>44518</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>44519</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>44520</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>44521</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>44522</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>44523</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>44524</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>44525</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>44526</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>44527</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>44528</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>44529</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>44530</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>44531</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>44532</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>44533</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>44534</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>44535</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>44536</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>44537</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>44538</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>44539</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>44540</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>44541</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>44542</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>44543</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>44544</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>44545</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>44546</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>44547</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>44548</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>44549</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>44550</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>44551</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>44552</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>44553</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>44554</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>44555</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>44556</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>44557</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>44558</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>44559</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>44560</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>44561</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>44562</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>44563</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>44564</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>44565</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>44566</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>44567</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>44568</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>44569</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>44570</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>44571</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>44572</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>44573</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>44574</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>44575</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>44576</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>44577</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>44578</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>44579</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>44580</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>44581</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>44582</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>44583</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>44584</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>44585</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>44586</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>44587</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>44588</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>44589</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>44590</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>44591</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>44592</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>44593</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>44594</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>44595</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>44596</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>44597</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>44598</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>44599</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>44600</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>44601</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>44602</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>44603</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>44604</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>44605</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>44606</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>44607</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>44608</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>44609</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>44610</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>44611</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>44612</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>44613</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>44614</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>44615</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>44616</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>44617</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>44618</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>44619</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>44620</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>44621</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>44622</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>44623</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>44624</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>44625</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>44626</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>44627</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>44628</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>44629</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>44630</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>44631</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>44632</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>44633</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>44634</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>44635</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>44636</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>44637</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>44638</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>44639</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>44640</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>44641</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>44642</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>44643</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>44644</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>44645</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>44646</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>44647</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>44648</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>44649</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>44650</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>44651</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>44652</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>44653</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>44654</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>44655</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>44656</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>44657</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>44658</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>44659</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>44660</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>44661</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>44662</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>44663</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>44664</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>44665</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>44670</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>44671</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>44672</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>44673</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>44676</v>
       </c>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>44677</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>44678</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>44679</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>44680</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>44683</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>44684</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>44685</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>44686</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>44687</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>44690</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>44691</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>44692</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>44693</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>44694</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>44697</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>44698</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>44699</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>44700</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>44701</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>44704</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>44711</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>44714</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>44719</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>44721</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>44725</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>44728</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>44732</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>44735</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>44739</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>44742</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>44746</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>44749</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>44753</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>44756</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>44761</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>44768</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>44775</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>44782</v>
       </c>
@@ -9338,9 +9338,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
-        <f t="shared" ref="A658:A682" si="0">A657+7</f>
+        <f t="shared" ref="A658:A683" si="0">A657+7</f>
         <v>44789</v>
       </c>
       <c r="B658">
@@ -9353,7 +9353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <f t="shared" si="0"/>
         <v>44796</v>
@@ -9368,7 +9368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <f t="shared" si="0"/>
         <v>44803</v>
@@ -9383,7 +9383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <f t="shared" si="0"/>
         <v>44810</v>
@@ -9398,7 +9398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <f t="shared" si="0"/>
         <v>44817</v>
@@ -9413,7 +9413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <f t="shared" si="0"/>
         <v>44824</v>
@@ -9428,7 +9428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <f t="shared" si="0"/>
         <v>44831</v>
@@ -9443,7 +9443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <f t="shared" si="0"/>
         <v>44838</v>
@@ -9458,7 +9458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <f t="shared" si="0"/>
         <v>44845</v>
@@ -9473,7 +9473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <f t="shared" si="0"/>
         <v>44852</v>
@@ -9488,7 +9488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <f t="shared" si="0"/>
         <v>44859</v>
@@ -9503,7 +9503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -9518,7 +9518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <f t="shared" si="0"/>
         <v>44873</v>
@@ -9533,7 +9533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <f t="shared" si="0"/>
         <v>44880</v>
@@ -9548,7 +9548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <f t="shared" si="0"/>
         <v>44887</v>
@@ -9563,7 +9563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <f t="shared" si="0"/>
         <v>44894</v>
@@ -9578,7 +9578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <f t="shared" si="0"/>
         <v>44901</v>
@@ -9593,7 +9593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <f t="shared" si="0"/>
         <v>44908</v>
@@ -9608,7 +9608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <f t="shared" si="0"/>
         <v>44915</v>
@@ -9623,7 +9623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <f t="shared" si="0"/>
         <v>44922</v>
@@ -9638,7 +9638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <f t="shared" si="0"/>
         <v>44929</v>
@@ -9653,7 +9653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <f t="shared" si="0"/>
         <v>44936</v>
@@ -9668,7 +9668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <f t="shared" si="0"/>
         <v>44943</v>
@@ -9683,7 +9683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <f t="shared" si="0"/>
         <v>44950</v>
@@ -9698,7 +9698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <f t="shared" si="0"/>
         <v>44957</v>
@@ -9710,6 +9710,21 @@
         <v>3</v>
       </c>
       <c r="D682" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A683" s="1">
+        <f t="shared" si="0"/>
+        <v>44964</v>
+      </c>
+      <c r="B683">
+        <v>334</v>
+      </c>
+      <c r="C683" t="s">
+        <v>3</v>
+      </c>
+      <c r="D683" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9736,6 +9751,7 @@
     <hyperlink ref="D680" r:id="rId13" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{A5DB9C72-68BE-495B-B354-EEC40AC90E12}"/>
     <hyperlink ref="D681" r:id="rId14" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{86701979-CBD5-4AC1-8356-8AAFFBCFEE3C}"/>
     <hyperlink ref="D682" r:id="rId15" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{F6664661-EE0F-43BE-9CAC-8D4B894426BD}"/>
+    <hyperlink ref="D683" r:id="rId16" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{DA1879D0-96EE-48E1-8BD2-AF26612117FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\modellclub\2003_covid_modell\_Bulletin\LeipzigPlus_24\IMISE-Epidemiologisches-Bulletin-24\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577C8804-CD55-4358-9BB4-AA34034F8E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A392FFE3-4169-4DFF-ACB1-562A60E65DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -435,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F683"/>
+  <dimension ref="A1:F684"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A675" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D683" sqref="D683"/>
+      <selection activeCell="A683" sqref="A683:A684"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44053</v>
       </c>
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44054</v>
       </c>
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44055</v>
       </c>
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44056</v>
       </c>
@@ -513,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44057</v>
       </c>
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44058</v>
       </c>
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44059</v>
       </c>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44060</v>
       </c>
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44061</v>
       </c>
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44062</v>
       </c>
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44063</v>
       </c>
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44064</v>
       </c>
@@ -619,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44065</v>
       </c>
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44066</v>
       </c>
@@ -641,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44067</v>
       </c>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44068</v>
       </c>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44069</v>
       </c>
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44071</v>
       </c>
@@ -711,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44072</v>
       </c>
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44073</v>
       </c>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44075</v>
       </c>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44076</v>
       </c>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44077</v>
       </c>
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44078</v>
       </c>
@@ -803,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44079</v>
       </c>
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44081</v>
       </c>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44082</v>
       </c>
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44083</v>
       </c>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44084</v>
       </c>
@@ -881,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44085</v>
       </c>
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44086</v>
       </c>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44087</v>
       </c>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44088</v>
       </c>
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44089</v>
       </c>
@@ -945,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44090</v>
       </c>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44091</v>
       </c>
@@ -973,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44092</v>
       </c>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44093</v>
       </c>
@@ -998,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44094</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44095</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44096</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44097</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44098</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44099</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44100</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44101</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44102</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44103</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44104</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44105</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44106</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44107</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44108</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44109</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44110</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44111</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44112</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44113</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44114</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44115</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44116</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44119</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44120</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44121</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44122</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44123</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44124</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44125</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44126</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44127</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44128</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44129</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44130</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44131</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44132</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44133</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44134</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44135</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44136</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44137</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44138</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44139</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44140</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44141</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44142</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44143</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44144</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44145</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44146</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44147</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44148</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44149</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44150</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44151</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44152</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44153</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44154</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44155</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44156</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44157</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44158</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44159</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44160</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44161</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44162</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44163</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44164</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44165</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44166</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44167</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44168</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44169</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44170</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44171</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44172</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44173</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44175</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44176</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44177</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44178</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44179</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44180</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44181</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44182</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44183</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44184</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44185</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44186</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44187</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44188</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44189</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44190</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44191</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44192</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44193</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44194</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44195</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44198</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44199</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44200</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44201</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44202</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44203</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44204</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44205</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44206</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44207</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44208</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44209</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44210</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44211</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44212</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44213</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44214</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44215</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44216</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44217</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44218</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44219</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44220</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44221</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44222</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44223</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44224</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44225</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44226</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44228</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44229</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44230</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44232</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44233</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44234</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44235</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44237</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44238</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44239</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44240</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44241</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44242</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44243</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44244</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44245</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44246</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44247</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44248</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44249</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44250</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44251</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44252</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44253</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44254</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44255</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44256</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44257</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44258</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44259</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44260</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44261</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44262</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44263</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44264</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44265</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44266</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44267</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44268</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44269</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44270</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44271</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44272</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44273</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44274</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44275</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44276</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44277</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44278</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44279</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44280</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44281</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44282</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44283</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44284</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44285</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44286</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44287</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44288</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44289</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44290</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44291</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44292</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44293</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44294</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44295</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44296</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44297</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44298</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44299</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44300</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44301</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44302</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44303</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44304</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44305</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44306</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44307</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44308</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44309</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44310</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44311</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44312</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44313</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44314</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44315</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44316</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44317</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44318</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44319</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44320</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44321</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44322</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44323</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44324</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44325</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44326</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44327</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44328</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44329</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44330</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44331</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44332</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44333</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44334</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44335</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44336</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44337</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44338</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44339</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44340</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44341</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44342</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44343</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44344</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44345</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44346</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44347</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44348</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44349</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44350</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44351</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44352</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44353</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44354</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44355</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44356</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44357</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44358</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44359</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44360</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>44361</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>44362</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>44363</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44364</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44365</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>44366</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>44367</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>44368</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>44369</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>44370</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>44371</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>44372</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>44373</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>44374</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>44375</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>44376</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>44378</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>44379</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>44380</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>44381</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>44382</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>44383</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>44384</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>44385</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>44386</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>44387</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>44388</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>44389</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>44390</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>44391</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>44392</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>44393</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>44394</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>44395</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>44396</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>44397</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>44398</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>44399</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>44400</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>44401</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>44402</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>44403</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>44404</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>44405</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>44406</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>44407</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>44408</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>44409</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>44410</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>44411</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>44412</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>44413</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>44414</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>44415</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>44416</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>44417</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>44418</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>44419</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>44420</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>44421</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>44422</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>44423</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>44424</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44425</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44426</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>44427</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>44428</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>44429</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>44430</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>44431</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44432</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44433</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>44434</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>44435</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>44436</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>44437</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>44438</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44439</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44440</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>44441</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>44442</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>44443</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>44444</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>44445</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44446</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44447</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44448</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>44449</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>44450</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>44451</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>44452</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>44453</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44454</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>44455</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>44456</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>44457</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>44458</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>44459</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>44460</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>44461</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>44462</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>44463</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>44464</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>44465</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>44466</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44467</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44468</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>44469</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>44470</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>44471</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>44472</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>44473</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44474</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>44475</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>44476</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>44477</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>44478</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>44479</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>44480</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>44481</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>44482</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>44483</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>44484</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>44485</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>44486</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>44487</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>44488</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>44489</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>44490</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>44491</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>44492</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>44493</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>44494</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>44495</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>44496</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>44497</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>44498</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>44499</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>44500</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>44501</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>44502</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>44503</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>44504</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>44505</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>44506</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>44507</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>44508</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>44509</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>44510</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>44511</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>44512</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>44513</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>44514</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>44515</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>44516</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>44517</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>44518</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>44519</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>44520</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>44521</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>44522</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>44523</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>44524</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>44525</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>44526</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>44527</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>44528</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>44529</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>44530</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>44531</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>44532</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>44533</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>44534</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>44535</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>44536</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>44537</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>44538</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>44539</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>44540</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>44541</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>44542</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>44543</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>44544</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>44545</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>44546</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>44547</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>44548</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>44549</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>44550</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>44551</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>44552</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>44553</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>44554</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>44555</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>44556</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>44557</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>44558</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>44559</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>44560</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>44561</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>44562</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>44563</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>44564</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>44565</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>44566</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>44567</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>44568</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>44569</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>44570</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>44571</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>44572</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>44573</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>44574</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>44575</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>44576</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>44577</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>44578</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>44579</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>44580</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>44581</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>44582</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>44583</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>44584</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>44585</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>44586</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>44587</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>44588</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>44589</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>44590</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>44591</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>44592</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>44593</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>44594</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>44595</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>44596</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>44597</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>44598</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>44599</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>44600</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>44601</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>44602</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>44603</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>44604</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>44605</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>44606</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>44607</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>44608</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>44609</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>44610</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>44611</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>44612</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>44613</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>44614</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>44615</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>44616</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>44617</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>44618</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>44619</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>44620</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>44621</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>44622</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>44623</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>44624</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>44625</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>44626</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>44627</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>44628</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>44629</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>44630</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>44631</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>44632</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>44633</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>44634</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>44635</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>44636</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>44637</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>44638</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>44639</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>44640</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>44641</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>44642</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>44643</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>44644</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>44645</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>44646</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>44647</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>44648</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>44649</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>44650</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>44651</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>44652</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>44653</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>44654</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>44655</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>44656</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>44657</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>44658</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>44659</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>44660</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>44661</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>44662</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>44663</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>44664</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>44665</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>44670</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>44671</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>44672</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>44673</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>44676</v>
       </c>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>44677</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>44678</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>44679</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>44680</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>44683</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>44684</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>44685</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>44686</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>44687</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>44690</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>44691</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>44692</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>44693</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>44694</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>44697</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>44698</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>44699</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>44700</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>44701</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>44704</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>44711</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>44714</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>44719</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>44721</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>44725</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>44728</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>44732</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>44735</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>44739</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>44742</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>44746</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>44749</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>44753</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>44756</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>44761</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>44768</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>44775</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>44782</v>
       </c>
@@ -9338,9 +9338,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
-        <f t="shared" ref="A658:A683" si="0">A657+7</f>
+        <f t="shared" ref="A658:A684" si="0">A657+7</f>
         <v>44789</v>
       </c>
       <c r="B658">
@@ -9353,7 +9353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <f t="shared" si="0"/>
         <v>44796</v>
@@ -9368,7 +9368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <f t="shared" si="0"/>
         <v>44803</v>
@@ -9383,7 +9383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <f t="shared" si="0"/>
         <v>44810</v>
@@ -9398,7 +9398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <f t="shared" si="0"/>
         <v>44817</v>
@@ -9413,7 +9413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <f t="shared" si="0"/>
         <v>44824</v>
@@ -9428,7 +9428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <f t="shared" si="0"/>
         <v>44831</v>
@@ -9443,7 +9443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <f t="shared" si="0"/>
         <v>44838</v>
@@ -9458,7 +9458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <f t="shared" si="0"/>
         <v>44845</v>
@@ -9473,7 +9473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <f t="shared" si="0"/>
         <v>44852</v>
@@ -9488,7 +9488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <f t="shared" si="0"/>
         <v>44859</v>
@@ -9503,7 +9503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -9518,7 +9518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <f t="shared" si="0"/>
         <v>44873</v>
@@ -9533,7 +9533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <f t="shared" si="0"/>
         <v>44880</v>
@@ -9548,7 +9548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <f t="shared" si="0"/>
         <v>44887</v>
@@ -9563,7 +9563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <f t="shared" si="0"/>
         <v>44894</v>
@@ -9578,7 +9578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <f t="shared" si="0"/>
         <v>44901</v>
@@ -9593,7 +9593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <f t="shared" si="0"/>
         <v>44908</v>
@@ -9608,7 +9608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <f t="shared" si="0"/>
         <v>44915</v>
@@ -9623,7 +9623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <f t="shared" si="0"/>
         <v>44922</v>
@@ -9638,7 +9638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <f t="shared" si="0"/>
         <v>44929</v>
@@ -9653,7 +9653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <f t="shared" si="0"/>
         <v>44936</v>
@@ -9668,7 +9668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <f t="shared" si="0"/>
         <v>44943</v>
@@ -9683,7 +9683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <f t="shared" si="0"/>
         <v>44950</v>
@@ -9698,7 +9698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <f t="shared" si="0"/>
         <v>44957</v>
@@ -9713,7 +9713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <f t="shared" si="0"/>
         <v>44964</v>
@@ -9725,6 +9725,21 @@
         <v>3</v>
       </c>
       <c r="D683" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684" s="1">
+        <f t="shared" si="0"/>
+        <v>44971</v>
+      </c>
+      <c r="B684">
+        <v>355</v>
+      </c>
+      <c r="C684" t="s">
+        <v>3</v>
+      </c>
+      <c r="D684" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9752,6 +9767,7 @@
     <hyperlink ref="D681" r:id="rId14" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{86701979-CBD5-4AC1-8356-8AAFFBCFEE3C}"/>
     <hyperlink ref="D682" r:id="rId15" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{F6664661-EE0F-43BE-9CAC-8D4B894426BD}"/>
     <hyperlink ref="D683" r:id="rId16" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{DA1879D0-96EE-48E1-8BD2-AF26612117FD}"/>
+    <hyperlink ref="D684" r:id="rId17" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{8E2ABD0F-37AF-438E-8708-4E35E7C63E62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sachsen_kh_normalstation.xlsx
+++ b/data/sachsen_kh_normalstation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\modellclub\2003_covid_modell\_Bulletin\LeipzigPlus_24\IMISE-Epidemiologisches-Bulletin-24\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A392FFE3-4169-4DFF-ACB1-562A60E65DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD15385-9E68-4F43-9742-7494D7A0C7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -435,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F684"/>
+  <dimension ref="A1:F686"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A675" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A683" sqref="A683:A684"/>
+      <selection activeCell="C693" sqref="C693"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44053</v>
       </c>
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44054</v>
       </c>
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44055</v>
       </c>
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44056</v>
       </c>
@@ -513,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44057</v>
       </c>
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44058</v>
       </c>
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44059</v>
       </c>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44060</v>
       </c>
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44061</v>
       </c>
@@ -577,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44062</v>
       </c>
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44063</v>
       </c>
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44064</v>
       </c>
@@ -619,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44065</v>
       </c>
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44066</v>
       </c>
@@ -641,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44067</v>
       </c>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44068</v>
       </c>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44069</v>
       </c>
@@ -683,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44071</v>
       </c>
@@ -711,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44072</v>
       </c>
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44073</v>
       </c>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44074</v>
       </c>
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44075</v>
       </c>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44076</v>
       </c>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44077</v>
       </c>
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44078</v>
       </c>
@@ -803,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44079</v>
       </c>
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44080</v>
       </c>
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44081</v>
       </c>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44082</v>
       </c>
@@ -853,7 +853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44083</v>
       </c>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44084</v>
       </c>
@@ -881,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44085</v>
       </c>
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44086</v>
       </c>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44087</v>
       </c>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44088</v>
       </c>
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44089</v>
       </c>
@@ -945,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44090</v>
       </c>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44091</v>
       </c>
@@ -973,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44092</v>
       </c>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44093</v>
       </c>
@@ -998,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44094</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44095</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44096</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44097</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44098</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44099</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44100</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44101</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44102</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44103</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44104</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44105</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44106</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44107</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44108</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44109</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44110</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44111</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44112</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44113</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44114</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44115</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44116</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44117</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44118</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44119</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44120</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44121</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44122</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44123</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44124</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44125</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44126</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44127</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44128</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44129</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44130</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44131</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44132</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44133</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44134</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44135</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44136</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44137</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44138</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44139</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44140</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44141</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44142</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44143</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44144</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44145</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44146</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44147</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44148</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44149</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44150</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44151</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44152</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44153</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44154</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44155</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44156</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44157</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44158</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44159</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44160</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44161</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44162</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44163</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44164</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44165</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44166</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44167</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44168</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44169</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44170</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44171</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44172</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44173</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44175</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44176</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44177</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44178</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44179</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44180</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44181</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44182</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44183</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44184</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44185</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44186</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44187</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44188</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44189</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44190</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44191</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44192</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44193</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44194</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44195</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44196</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44197</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44198</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44199</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44200</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44201</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44202</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44203</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44204</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44205</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44206</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44207</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44208</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44209</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44210</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44211</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44212</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44213</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44214</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44215</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44216</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44217</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44218</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44219</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44220</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44221</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44222</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44223</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44224</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44225</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44226</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44227</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44228</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44229</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44230</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44231</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44232</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44233</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44234</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44235</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44237</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44238</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44239</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44240</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44241</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44242</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44243</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44244</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44245</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44246</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44247</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44248</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44249</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44250</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44251</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44252</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44253</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44254</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44255</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44256</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44257</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44258</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44259</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44260</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44261</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44262</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44263</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44264</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44265</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44266</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44267</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44268</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44269</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44270</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44271</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44272</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44273</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44274</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44275</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44276</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44277</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44278</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44279</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44280</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44281</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44282</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44283</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44284</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44285</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44286</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44287</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44288</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44289</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44290</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44291</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44292</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44293</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44294</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44295</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44296</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44297</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44298</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44299</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44300</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44301</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44302</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44303</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44304</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44305</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44306</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44307</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44308</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44309</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44310</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44311</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44312</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44313</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44314</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44315</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44316</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44317</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44318</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44319</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44320</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44321</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44322</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44323</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44324</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44325</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44326</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44327</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44328</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44329</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44330</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44331</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44332</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44333</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44334</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44335</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44336</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44337</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44338</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44339</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44340</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44341</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44342</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44343</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44344</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44345</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44346</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44347</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44348</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44349</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44350</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44351</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44352</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44353</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44354</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44355</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44356</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44357</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44358</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44359</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44360</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44361</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44362</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44363</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44364</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44365</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44366</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44367</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44368</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44369</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44370</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44371</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44372</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44373</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44374</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44375</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44376</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44377</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44378</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44379</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44380</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44381</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44382</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44383</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44384</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44385</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44386</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44387</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44388</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44389</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44390</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44391</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44392</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44393</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44394</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44395</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44396</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44397</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44398</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44399</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44400</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44401</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44402</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44403</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44404</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44405</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44406</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44407</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44408</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44409</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44410</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44411</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>44412</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>44413</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>44414</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>44415</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>44416</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>44417</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>44418</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>44419</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>44420</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>44421</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44422</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44423</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44424</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44425</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>44426</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>44427</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44428</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>44429</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>44430</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44431</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>44432</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44433</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>44434</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>44435</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44436</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>44437</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>44438</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44439</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>44440</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>44441</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44442</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>44443</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>44444</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>44445</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>44446</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>44447</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>44448</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>44449</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>44450</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>44451</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>44452</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>44453</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>44454</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>44455</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>44456</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>44457</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>44458</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>44459</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>44460</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>44461</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>44462</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>44463</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>44464</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>44465</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>44466</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>44467</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>44468</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>44469</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>44470</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>44471</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>44472</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>44473</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>44474</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>44475</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>44476</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>44477</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>44478</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>44479</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>44480</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>44481</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>44482</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>44483</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>44484</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>44485</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>44486</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>44487</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>44488</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>44489</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>44490</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>44491</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>44492</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>44493</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>44494</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>44495</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>44496</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>44497</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>44498</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>44499</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>44500</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>44501</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>44502</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>44503</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>44504</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>44505</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>44506</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>44507</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>44508</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>44509</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>44510</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>44511</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>44512</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>44513</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>44514</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>44515</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>44516</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>44517</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>44518</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>44519</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>44520</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>44521</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>44522</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>44523</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>44524</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>44525</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>44526</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>44527</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>44528</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>44529</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>44530</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>44531</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>44532</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>44533</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>44534</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>44535</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>44536</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>44537</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>44538</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>44539</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>44540</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>44541</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>44542</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>44543</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>44544</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>44545</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>44546</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>44547</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>44548</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>44549</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>44550</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>44551</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>44552</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>44553</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>44554</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>44555</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>44556</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>44557</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>44558</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>44559</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>44560</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>44561</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>44562</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>44563</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>44564</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>44565</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>44566</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>44567</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>44568</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>44569</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>44570</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>44571</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>44572</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>44573</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>44574</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>44575</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>44576</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>44577</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>44578</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>44579</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>44580</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>44581</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>44582</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>44583</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>44584</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>44585</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>44586</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>44587</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>44588</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>44589</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>44590</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>44591</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>44592</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>44593</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>44594</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>44595</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>44596</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>44597</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>44598</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>44599</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>44600</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>44601</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>44602</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>44603</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>44604</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>44605</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>44606</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>44607</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>44608</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>44609</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>44610</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>44611</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>44612</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>44613</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>44614</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>44615</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>44616</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>44617</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>44618</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>44619</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>44620</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>44621</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>44622</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>44623</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>44624</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>44625</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>44626</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>44627</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>44628</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>44629</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>44630</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>44631</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>44632</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>44633</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>44634</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>44635</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>44636</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>44637</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>44638</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>44639</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>44640</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>44641</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>44642</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>44643</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>44644</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>44645</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>44646</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>44647</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>44648</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>44649</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>44650</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>44651</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>44652</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>44653</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>44654</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>44655</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>44656</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>44657</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>44658</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>44659</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>44660</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>44661</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>44662</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>44663</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>44664</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>44665</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>44670</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>44671</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>44672</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>44673</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="E618" s="1"/>
       <c r="F618" s="1"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>44676</v>
       </c>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="E619" s="1"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>44677</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>44678</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>44679</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>44680</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>44683</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>44684</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>44685</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>44686</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>44687</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>44690</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>44691</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>44692</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>44693</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>44694</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>44697</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>44698</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>44699</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>44700</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>44701</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>44704</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>44711</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>44714</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>44719</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>44721</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>44725</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>44728</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>44732</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>44735</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>44739</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>44742</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>44746</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>44749</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>44753</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>44756</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>44761</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>44768</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>44775</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>44782</v>
       </c>
@@ -9338,9 +9338,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
-        <f t="shared" ref="A658:A684" si="0">A657+7</f>
+        <f t="shared" ref="A658:A686" si="0">A657+7</f>
         <v>44789</v>
       </c>
       <c r="B658">
@@ -9353,7 +9353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <f t="shared" si="0"/>
         <v>44796</v>
@@ -9368,7 +9368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <f t="shared" si="0"/>
         <v>44803</v>
@@ -9383,7 +9383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <f t="shared" si="0"/>
         <v>44810</v>
@@ -9398,7 +9398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <f t="shared" si="0"/>
         <v>44817</v>
@@ -9413,7 +9413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <f t="shared" si="0"/>
         <v>44824</v>
@@ -9428,7 +9428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <f t="shared" si="0"/>
         <v>44831</v>
@@ -9443,7 +9443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <f t="shared" si="0"/>
         <v>44838</v>
@@ -9458,7 +9458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <f t="shared" si="0"/>
         <v>44845</v>
@@ -9473,7 +9473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <f t="shared" si="0"/>
         <v>44852</v>
@@ -9488,7 +9488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <f t="shared" si="0"/>
         <v>44859</v>
@@ -9503,7 +9503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <f t="shared" si="0"/>
         <v>44866</v>
@@ -9518,7 +9518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <f t="shared" si="0"/>
         <v>44873</v>
@@ -9533,7 +9533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <f t="shared" si="0"/>
         <v>44880</v>
@@ -9548,7 +9548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <f t="shared" si="0"/>
         <v>44887</v>
@@ -9563,7 +9563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <f t="shared" si="0"/>
         <v>44894</v>
@@ -9578,7 +9578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <f t="shared" si="0"/>
         <v>44901</v>
@@ -9593,7 +9593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <f t="shared" si="0"/>
         <v>44908</v>
@@ -9608,7 +9608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <f t="shared" si="0"/>
         <v>44915</v>
@@ -9623,7 +9623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <f t="shared" si="0"/>
         <v>44922</v>
@@ -9638,7 +9638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <f t="shared" si="0"/>
         <v>44929</v>
@@ -9653,7 +9653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <f t="shared" si="0"/>
         <v>44936</v>
@@ -9668,7 +9668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <f t="shared" si="0"/>
         <v>44943</v>
@@ -9683,7 +9683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <f t="shared" si="0"/>
         <v>44950</v>
@@ -9698,7 +9698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <f t="shared" si="0"/>
         <v>44957</v>
@@ -9713,7 +9713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <f t="shared" si="0"/>
         <v>44964</v>
@@ -9728,7 +9728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <f t="shared" si="0"/>
         <v>44971</v>
@@ -9740,6 +9740,36 @@
         <v>3</v>
       </c>
       <c r="D684" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A685" s="1">
+        <f t="shared" si="0"/>
+        <v>44978</v>
+      </c>
+      <c r="B685">
+        <v>401</v>
+      </c>
+      <c r="C685" t="s">
+        <v>3</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A686" s="1">
+        <f t="shared" si="0"/>
+        <v>44985</v>
+      </c>
+      <c r="B686">
+        <v>442</v>
+      </c>
+      <c r="C686" t="s">
+        <v>3</v>
+      </c>
+      <c r="D686" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9768,7 +9798,10 @@
     <hyperlink ref="D682" r:id="rId15" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{F6664661-EE0F-43BE-9CAC-8D4B894426BD}"/>
     <hyperlink ref="D683" r:id="rId16" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{DA1879D0-96EE-48E1-8BD2-AF26612117FD}"/>
     <hyperlink ref="D684" r:id="rId17" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{8E2ABD0F-37AF-438E-8708-4E35E7C63E62}"/>
+    <hyperlink ref="D685" r:id="rId18" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{F0D2F8F1-1A7F-40A4-8878-41838C6A3DF7}"/>
+    <hyperlink ref="D686" r:id="rId19" location="a-8996" display="https://www.coronavirus.sachsen.de/infektionsfaelle-in-sachsen-4151.html#a-8996" xr:uid="{E0832E0C-94BE-4884-BDCB-653717650396}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>